--- a/my_work/data1/YearMeanER56651_丽江.xlsx
+++ b/my_work/data1/YearMeanER56651_丽江.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,926 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5062.849999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>861.5999999999997</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1504</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1645.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1052.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4861.749999999997</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2340</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5064.049999999997</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5192.499999999995</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2956.550000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4855.349999999997</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3120.000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6617.599999999996</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6842.799999999994</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3828.049999999998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5093.45</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3974.300000000002</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8129.599999999994</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8511.899999999996</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4886.099999999997</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5076.099999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4823.550000000002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9734.699999999988</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10177.74999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5841.999999999995</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4134.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5574.650000000005</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11220.09999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11766.14999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6151.599999999993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4868.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6355.050000000006</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12796.39999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14948.69999999998</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8006.149999999997</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4748.549999999995</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7075.250000000005</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14216.49999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16560.39999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9002.700000000004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4987.550000000002</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7865.700000000004</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15831.94999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18254.99999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9889.750000000005</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4883.949999999998</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8610.500000000009</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17308.89999999998</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19933.99999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10872.95000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5035.649999999994</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9402.150000000009</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18775.95</v>
+      </c>
+      <c r="E12" t="n">
+        <v>21644.29999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11939.60000000002</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4835.15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10176.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20255.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23348.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12816.35000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4817.45</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10784.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>21825.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25071.05000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13734.25000000002</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5002.450000000003</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11687.55000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23324.9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26680.10000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14724.50000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4923.900000000005</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12470.55000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24814.55000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28341.60000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15714.25000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4967.100000000003</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13281.30000000002</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26420.2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>29952.60000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16653.95</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5012.749999999995</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14118.60000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>27967.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>31555.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17679.10000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5177.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14972.55</v>
+      </c>
+      <c r="D19" t="n">
+        <v>29540.30000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>33257.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18728.35000000002</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4787.000000000003</v>
+      </c>
+      <c r="C20" t="n">
+        <v>15739.25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>31036.75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>34889.25000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19620.25000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4686.699999999999</v>
+      </c>
+      <c r="C21" t="n">
+        <v>16475</v>
+      </c>
+      <c r="D21" t="n">
+        <v>32394.55</v>
+      </c>
+      <c r="E21" t="n">
+        <v>36464.15000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20638.50000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4889.150000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17287.19999999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>33906.54999999999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>38075.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21592.40000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4669</v>
+      </c>
+      <c r="C23" t="n">
+        <v>17960.60000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>35446.14999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>39700.75000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>22422.85000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4835.300000000005</v>
+      </c>
+      <c r="C24" t="n">
+        <v>18676.00000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>36938.00000000002</v>
+      </c>
+      <c r="E24" t="n">
+        <v>41339.10000000003</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23412.55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5016.199999999997</v>
+      </c>
+      <c r="C25" t="n">
+        <v>19488.55</v>
+      </c>
+      <c r="D25" t="n">
+        <v>38532.65000000002</v>
+      </c>
+      <c r="E25" t="n">
+        <v>42986.09999999999</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24374.55</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4862.149999999996</v>
+      </c>
+      <c r="C26" t="n">
+        <v>20264.95000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40060.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>44506.99999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25411.75000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4980.750000000002</v>
+      </c>
+      <c r="C27" t="n">
+        <v>21082.85</v>
+      </c>
+      <c r="D27" t="n">
+        <v>41552.39999999998</v>
+      </c>
+      <c r="E27" t="n">
+        <v>46149.05</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26440.45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4719.199999999997</v>
+      </c>
+      <c r="C28" t="n">
+        <v>21789.69999999999</v>
+      </c>
+      <c r="D28" t="n">
+        <v>43040.89999999999</v>
+      </c>
+      <c r="E28" t="n">
+        <v>47705.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>27407.55000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5092.250000000002</v>
+      </c>
+      <c r="C29" t="n">
+        <v>22600.24999999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>44638.05</v>
+      </c>
+      <c r="E29" t="n">
+        <v>49360</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28437.9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5176.050000000003</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23585.24999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>46246.59999999995</v>
+      </c>
+      <c r="E30" t="n">
+        <v>50957.94999999998</v>
+      </c>
+      <c r="F30" t="n">
+        <v>29422.44999999999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4838.45</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24312.04999999998</v>
+      </c>
+      <c r="D31" t="n">
+        <v>47725.54999999994</v>
+      </c>
+      <c r="E31" t="n">
+        <v>52608.64999999998</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30404.44999999998</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4955.899999999999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>25135.59999999999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>49196.99999999991</v>
+      </c>
+      <c r="E32" t="n">
+        <v>54264.04999999997</v>
+      </c>
+      <c r="F32" t="n">
+        <v>31409.94999999998</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4929.550000000002</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25982.84999999998</v>
+      </c>
+      <c r="D33" t="n">
+        <v>50719.54999999988</v>
+      </c>
+      <c r="E33" t="n">
+        <v>55792.05</v>
+      </c>
+      <c r="F33" t="n">
+        <v>32441.69999999998</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5192.349999999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>26801.59999999997</v>
+      </c>
+      <c r="D34" t="n">
+        <v>52278.94999999985</v>
+      </c>
+      <c r="E34" t="n">
+        <v>57527.49999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33520.44999999996</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5018.449999999997</v>
+      </c>
+      <c r="C35" t="n">
+        <v>27724.24999999997</v>
+      </c>
+      <c r="D35" t="n">
+        <v>53761.54999999983</v>
+      </c>
+      <c r="E35" t="n">
+        <v>59179.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34481.84999999996</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5321.000000000002</v>
+      </c>
+      <c r="C36" t="n">
+        <v>28566.39999999998</v>
+      </c>
+      <c r="D36" t="n">
+        <v>55421.94999999982</v>
+      </c>
+      <c r="E36" t="n">
+        <v>60922.35000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>35557.24999999998</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5478.450000000003</v>
+      </c>
+      <c r="C37" t="n">
+        <v>29635.59999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>57037.84999999982</v>
+      </c>
+      <c r="E37" t="n">
+        <v>62644.10000000002</v>
+      </c>
+      <c r="F37" t="n">
+        <v>36628.84999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5001.050000000003</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30472.59999999999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>58554.44999999982</v>
+      </c>
+      <c r="E38" t="n">
+        <v>64317.55000000002</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37602.85000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4979.299999999997</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31265.35</v>
+      </c>
+      <c r="D39" t="n">
+        <v>60095.24999999985</v>
+      </c>
+      <c r="E39" t="n">
+        <v>66004.29999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>38561.85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5360.549999999996</v>
+      </c>
+      <c r="C40" t="n">
+        <v>32175.05</v>
+      </c>
+      <c r="D40" t="n">
+        <v>61725.94999999982</v>
+      </c>
+      <c r="E40" t="n">
+        <v>67748.89999999997</v>
+      </c>
+      <c r="F40" t="n">
+        <v>39637.40000000005</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5260.599999999998</v>
+      </c>
+      <c r="C41" t="n">
+        <v>33132.34999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>63336.7499999998</v>
+      </c>
+      <c r="E41" t="n">
+        <v>69482.29999999997</v>
+      </c>
+      <c r="F41" t="n">
+        <v>40596.50000000005</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5025.699999999998</v>
+      </c>
+      <c r="C42" t="n">
+        <v>33943.1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>64914.94999999979</v>
+      </c>
+      <c r="E42" t="n">
+        <v>71186.59999999993</v>
+      </c>
+      <c r="F42" t="n">
+        <v>41528.95000000005</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5319.400000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>34854.19999999998</v>
+      </c>
+      <c r="D43" t="n">
+        <v>66561.64999999983</v>
+      </c>
+      <c r="E43" t="n">
+        <v>72899.69999999991</v>
+      </c>
+      <c r="F43" t="n">
+        <v>42577.45000000006</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5260.700000000003</v>
+      </c>
+      <c r="C44" t="n">
+        <v>35837.29999999995</v>
+      </c>
+      <c r="D44" t="n">
+        <v>68184.94999999987</v>
+      </c>
+      <c r="E44" t="n">
+        <v>74611.79999999993</v>
+      </c>
+      <c r="F44" t="n">
+        <v>43519.65000000009</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5444.2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>36790.74999999996</v>
+      </c>
+      <c r="D45" t="n">
+        <v>69895.7999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>76345.34999999989</v>
+      </c>
+      <c r="F45" t="n">
+        <v>44566.00000000007</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5461.299999999998</v>
+      </c>
+      <c r="C46" t="n">
+        <v>37793.79999999998</v>
+      </c>
+      <c r="D46" t="n">
+        <v>71624.24999999994</v>
+      </c>
+      <c r="E46" t="n">
+        <v>78058.79999999986</v>
+      </c>
+      <c r="F46" t="n">
+        <v>45582.35000000006</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5294.450000000003</v>
+      </c>
+      <c r="C47" t="n">
+        <v>38670.64999999997</v>
+      </c>
+      <c r="D47" t="n">
+        <v>73212.04999999996</v>
+      </c>
+      <c r="E47" t="n">
+        <v>79790.44999999985</v>
+      </c>
+      <c r="F47" t="n">
+        <v>46680.50000000008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/my_work/data1/YearMeanER56651_丽江.xlsx
+++ b/my_work/data1/YearMeanER56651_丽江.xlsx
@@ -470,19 +470,19 @@
         <v>1966</v>
       </c>
       <c r="B2" t="n">
-        <v>5062.849999999999</v>
+        <v>13.90892857142857</v>
       </c>
       <c r="C2" t="n">
-        <v>861.5999999999997</v>
+        <v>9.573333333333331</v>
       </c>
       <c r="D2" t="n">
-        <v>1504</v>
+        <v>16.71111111111111</v>
       </c>
       <c r="E2" t="n">
-        <v>1645.2</v>
+        <v>17.88260869565217</v>
       </c>
       <c r="F2" t="n">
-        <v>1052.05</v>
+        <v>11.43532608695653</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>1970</v>
       </c>
       <c r="B3" t="n">
-        <v>4861.749999999997</v>
+        <v>13.35645604395604</v>
       </c>
       <c r="C3" t="n">
-        <v>2340</v>
+        <v>16.71880149812733</v>
       </c>
       <c r="D3" t="n">
-        <v>5064.049999999997</v>
+        <v>39.30506715506714</v>
       </c>
       <c r="E3" t="n">
-        <v>5192.499999999995</v>
+        <v>38.75198487712664</v>
       </c>
       <c r="F3" t="n">
-        <v>2956.550000000001</v>
+        <v>20.82538397920606</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>1971</v>
       </c>
       <c r="B4" t="n">
-        <v>4855.349999999997</v>
+        <v>13.30232876712328</v>
       </c>
       <c r="C4" t="n">
-        <v>3120.000000000001</v>
+        <v>8.85243112775697</v>
       </c>
       <c r="D4" t="n">
-        <v>6617.599999999996</v>
+        <v>17.50390183686888</v>
       </c>
       <c r="E4" t="n">
-        <v>6842.799999999994</v>
+        <v>18.35926070518617</v>
       </c>
       <c r="F4" t="n">
-        <v>3828.049999999998</v>
+        <v>9.699188956295723</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>1972</v>
       </c>
       <c r="B5" t="n">
-        <v>5093.45</v>
+        <v>13.91653005464481</v>
       </c>
       <c r="C5" t="n">
-        <v>3974.300000000002</v>
+        <v>9.485191550854472</v>
       </c>
       <c r="D5" t="n">
-        <v>8129.599999999994</v>
+        <v>16.80773518502054</v>
       </c>
       <c r="E5" t="n">
-        <v>8511.899999999996</v>
+        <v>18.34194848592594</v>
       </c>
       <c r="F5" t="n">
-        <v>4886.099999999997</v>
+        <v>11.60596944517713</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>1973</v>
       </c>
       <c r="B6" t="n">
-        <v>5076.099999999999</v>
+        <v>13.90712328767123</v>
       </c>
       <c r="C6" t="n">
-        <v>4823.550000000002</v>
+        <v>9.541502128342827</v>
       </c>
       <c r="D6" t="n">
-        <v>9734.699999999988</v>
+        <v>17.82316192511012</v>
       </c>
       <c r="E6" t="n">
-        <v>10177.74999999999</v>
+        <v>18.30643422267311</v>
       </c>
       <c r="F6" t="n">
-        <v>5841.999999999995</v>
+        <v>10.51636923309975</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>1974</v>
       </c>
       <c r="B7" t="n">
-        <v>4134.5</v>
+        <v>14.11092150170649</v>
       </c>
       <c r="C7" t="n">
-        <v>5574.650000000005</v>
+        <v>8.451572245870477</v>
       </c>
       <c r="D7" t="n">
-        <v>11220.09999999999</v>
+        <v>16.51893584533088</v>
       </c>
       <c r="E7" t="n">
-        <v>11766.14999999999</v>
+        <v>17.46420037198557</v>
       </c>
       <c r="F7" t="n">
-        <v>6151.599999999993</v>
+        <v>16.00581846165499</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>1977</v>
       </c>
       <c r="B8" t="n">
-        <v>4868.35</v>
+        <v>13.41143250688705</v>
       </c>
       <c r="C8" t="n">
-        <v>6355.050000000006</v>
+        <v>8.863500811751351</v>
       </c>
       <c r="D8" t="n">
-        <v>12796.39999999999</v>
+        <v>17.50350478950913</v>
       </c>
       <c r="E8" t="n">
-        <v>14948.69999999998</v>
+        <v>35.16499121287898</v>
       </c>
       <c r="F8" t="n">
-        <v>8006.149999999997</v>
+        <v>20.33212846153973</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>1978</v>
       </c>
       <c r="B9" t="n">
-        <v>4748.549999999995</v>
+        <v>13.00972602739725</v>
       </c>
       <c r="C9" t="n">
-        <v>7075.250000000005</v>
+        <v>8.100705564575012</v>
       </c>
       <c r="D9" t="n">
-        <v>14216.49999999999</v>
+        <v>15.79784071197263</v>
       </c>
       <c r="E9" t="n">
-        <v>16560.39999999999</v>
+        <v>17.90070642622695</v>
       </c>
       <c r="F9" t="n">
-        <v>9002.700000000004</v>
+        <v>11.05306661371239</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>1979</v>
       </c>
       <c r="B10" t="n">
-        <v>4987.550000000002</v>
+        <v>13.66452054794521</v>
       </c>
       <c r="C10" t="n">
-        <v>7865.700000000004</v>
+        <v>8.872785617384167</v>
       </c>
       <c r="D10" t="n">
-        <v>15831.94999999999</v>
+        <v>17.92580044738432</v>
       </c>
       <c r="E10" t="n">
-        <v>18254.99999999999</v>
+        <v>18.61413811332855</v>
       </c>
       <c r="F10" t="n">
-        <v>9889.750000000005</v>
+        <v>9.761989854496875</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>1980</v>
       </c>
       <c r="B11" t="n">
-        <v>4883.949999999998</v>
+        <v>13.3441256830601</v>
       </c>
       <c r="C11" t="n">
-        <v>8610.500000000009</v>
+        <v>8.282118523267961</v>
       </c>
       <c r="D11" t="n">
-        <v>17308.89999999998</v>
+        <v>16.4272065983229</v>
       </c>
       <c r="E11" t="n">
-        <v>19933.99999999999</v>
+        <v>18.45232758818835</v>
       </c>
       <c r="F11" t="n">
-        <v>10872.95000000001</v>
+        <v>10.7930651071141</v>
       </c>
     </row>
     <row r="12">
@@ -670,19 +670,19 @@
         <v>1981</v>
       </c>
       <c r="B12" t="n">
-        <v>5035.649999999994</v>
+        <v>13.796301369863</v>
       </c>
       <c r="C12" t="n">
-        <v>9402.150000000009</v>
+        <v>8.888134650258534</v>
       </c>
       <c r="D12" t="n">
-        <v>18775.95</v>
+        <v>16.3019473252563</v>
       </c>
       <c r="E12" t="n">
-        <v>21644.29999999999</v>
+        <v>18.79078616943683</v>
       </c>
       <c r="F12" t="n">
-        <v>11939.60000000002</v>
+        <v>11.71133766420777</v>
       </c>
     </row>
     <row r="13">
@@ -690,19 +690,19 @@
         <v>1982</v>
       </c>
       <c r="B13" t="n">
-        <v>4835.15</v>
+        <v>13.24698630136986</v>
       </c>
       <c r="C13" t="n">
-        <v>10176.7</v>
+        <v>8.704868162780649</v>
       </c>
       <c r="D13" t="n">
-        <v>20255.5</v>
+        <v>16.43793348709073</v>
       </c>
       <c r="E13" t="n">
-        <v>23348.6</v>
+        <v>18.72924767575475</v>
       </c>
       <c r="F13" t="n">
-        <v>12816.35000000001</v>
+        <v>9.657188452871823</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +710,19 @@
         <v>1983</v>
       </c>
       <c r="B14" t="n">
-        <v>4817.45</v>
+        <v>13.3078729281768</v>
       </c>
       <c r="C14" t="n">
-        <v>10784.1</v>
+        <v>6.845609646253119</v>
       </c>
       <c r="D14" t="n">
-        <v>21825.2</v>
+        <v>17.43008718117683</v>
       </c>
       <c r="E14" t="n">
-        <v>25071.05000000001</v>
+        <v>18.92586138777995</v>
       </c>
       <c r="F14" t="n">
-        <v>13734.25000000002</v>
+        <v>10.42199088149294</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>1984</v>
       </c>
       <c r="B15" t="n">
-        <v>5002.450000000003</v>
+        <v>13.6678961748634</v>
       </c>
       <c r="C15" t="n">
-        <v>11687.55000000001</v>
+        <v>10.00324845765113</v>
       </c>
       <c r="D15" t="n">
-        <v>23324.9</v>
+        <v>16.67175919979316</v>
       </c>
       <c r="E15" t="n">
-        <v>26680.10000000001</v>
+        <v>17.69538979769326</v>
       </c>
       <c r="F15" t="n">
-        <v>14724.50000000001</v>
+        <v>10.87686946610319</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,19 @@
         <v>1985</v>
       </c>
       <c r="B16" t="n">
-        <v>4923.900000000005</v>
+        <v>13.49013698630138</v>
       </c>
       <c r="C16" t="n">
-        <v>12470.55000000001</v>
+        <v>8.811147205085016</v>
       </c>
       <c r="D16" t="n">
-        <v>24814.55000000001</v>
+        <v>16.55298636483289</v>
       </c>
       <c r="E16" t="n">
-        <v>28341.60000000001</v>
+        <v>18.25212380214884</v>
       </c>
       <c r="F16" t="n">
-        <v>15714.25000000001</v>
+        <v>10.8763790159359</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +770,19 @@
         <v>1986</v>
       </c>
       <c r="B17" t="n">
-        <v>4967.100000000003</v>
+        <v>13.60849315068494</v>
       </c>
       <c r="C17" t="n">
-        <v>13281.30000000002</v>
+        <v>9.106234968945387</v>
       </c>
       <c r="D17" t="n">
-        <v>26420.2</v>
+        <v>17.8264064435696</v>
       </c>
       <c r="E17" t="n">
-        <v>29952.60000000001</v>
+        <v>17.70926221524075</v>
       </c>
       <c r="F17" t="n">
-        <v>16653.95</v>
+        <v>10.33235194582539</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,19 @@
         <v>1987</v>
       </c>
       <c r="B18" t="n">
-        <v>5012.749999999995</v>
+        <v>13.7335616438356</v>
       </c>
       <c r="C18" t="n">
-        <v>14118.60000000001</v>
+        <v>9.404513721877167</v>
       </c>
       <c r="D18" t="n">
-        <v>27967.5</v>
+        <v>17.19919127959966</v>
       </c>
       <c r="E18" t="n">
-        <v>31555.6</v>
+        <v>17.61640502407871</v>
       </c>
       <c r="F18" t="n">
-        <v>17679.10000000001</v>
+        <v>11.25524295593288</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +810,19 @@
         <v>1988</v>
       </c>
       <c r="B19" t="n">
-        <v>5177.7</v>
+        <v>14.14672131147541</v>
       </c>
       <c r="C19" t="n">
-        <v>14972.55</v>
+        <v>9.487412238701948</v>
       </c>
       <c r="D19" t="n">
-        <v>29540.30000000001</v>
+        <v>17.47251858549011</v>
       </c>
       <c r="E19" t="n">
-        <v>33257.3</v>
+        <v>18.68822179373998</v>
       </c>
       <c r="F19" t="n">
-        <v>18728.35000000002</v>
+        <v>11.52723090169492</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +830,19 @@
         <v>1989</v>
       </c>
       <c r="B20" t="n">
-        <v>4787.000000000003</v>
+        <v>13.15109890109891</v>
       </c>
       <c r="C20" t="n">
-        <v>15739.25</v>
+        <v>8.624304580430019</v>
       </c>
       <c r="D20" t="n">
-        <v>31036.75</v>
+        <v>16.63651119324714</v>
       </c>
       <c r="E20" t="n">
-        <v>34889.25000000001</v>
+        <v>18.13888155817296</v>
       </c>
       <c r="F20" t="n">
-        <v>19620.25000000001</v>
+        <v>9.819861205453202</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +850,19 @@
         <v>1990</v>
       </c>
       <c r="B21" t="n">
-        <v>4686.699999999999</v>
+        <v>12.98254847645429</v>
       </c>
       <c r="C21" t="n">
-        <v>16475</v>
+        <v>8.270825606449222</v>
       </c>
       <c r="D21" t="n">
-        <v>32394.55</v>
+        <v>15.27151679103608</v>
       </c>
       <c r="E21" t="n">
-        <v>36464.15000000001</v>
+        <v>17.89931327593453</v>
       </c>
       <c r="F21" t="n">
-        <v>20638.50000000001</v>
+        <v>11.1746724044071</v>
       </c>
     </row>
     <row r="22">
@@ -870,19 +870,19 @@
         <v>1991</v>
       </c>
       <c r="B22" t="n">
-        <v>4889.150000000001</v>
+        <v>13.61880222841226</v>
       </c>
       <c r="C22" t="n">
-        <v>17287.19999999999</v>
+        <v>9.21877332142078</v>
       </c>
       <c r="D22" t="n">
-        <v>33906.54999999999</v>
+        <v>16.9696835199004</v>
       </c>
       <c r="E22" t="n">
-        <v>38075.2</v>
+        <v>18.30280127276331</v>
       </c>
       <c r="F22" t="n">
-        <v>21592.40000000001</v>
+        <v>10.60521618026821</v>
       </c>
     </row>
     <row r="23">
@@ -890,19 +890,19 @@
         <v>1992</v>
       </c>
       <c r="B23" t="n">
-        <v>4669</v>
+        <v>12.79178082191781</v>
       </c>
       <c r="C23" t="n">
-        <v>17960.60000000001</v>
+        <v>7.501305201334297</v>
       </c>
       <c r="D23" t="n">
-        <v>35446.14999999999</v>
+        <v>17.29521870577666</v>
       </c>
       <c r="E23" t="n">
-        <v>39700.75000000001</v>
+        <v>17.86796523122568</v>
       </c>
       <c r="F23" t="n">
-        <v>22422.85000000001</v>
+        <v>9.141904523698566</v>
       </c>
     </row>
     <row r="24">
@@ -910,19 +910,19 @@
         <v>1993</v>
       </c>
       <c r="B24" t="n">
-        <v>4835.300000000005</v>
+        <v>13.32038567493114</v>
       </c>
       <c r="C24" t="n">
-        <v>18676.00000000001</v>
+        <v>8.032236724459271</v>
       </c>
       <c r="D24" t="n">
-        <v>36938.00000000002</v>
+        <v>16.76828020784196</v>
       </c>
       <c r="E24" t="n">
-        <v>41339.10000000003</v>
+        <v>18.20019742012335</v>
       </c>
       <c r="F24" t="n">
-        <v>23412.55</v>
+        <v>10.85697722308368</v>
       </c>
     </row>
     <row r="25">
@@ -930,19 +930,19 @@
         <v>1994</v>
       </c>
       <c r="B25" t="n">
-        <v>5016.199999999997</v>
+        <v>13.81873278236914</v>
       </c>
       <c r="C25" t="n">
-        <v>19488.55</v>
+        <v>9.11758040804955</v>
       </c>
       <c r="D25" t="n">
-        <v>38532.65000000002</v>
+        <v>17.70789318909716</v>
       </c>
       <c r="E25" t="n">
-        <v>42986.09999999999</v>
+        <v>18.50222441577915</v>
       </c>
       <c r="F25" t="n">
-        <v>24374.55</v>
+        <v>10.57453236112048</v>
       </c>
     </row>
     <row r="26">
@@ -950,19 +950,19 @@
         <v>1995</v>
       </c>
       <c r="B26" t="n">
-        <v>4862.149999999996</v>
+        <v>13.65772471910111</v>
       </c>
       <c r="C26" t="n">
-        <v>20264.95000000001</v>
+        <v>8.82604022930393</v>
       </c>
       <c r="D26" t="n">
-        <v>40060.3</v>
+        <v>17.17064325765663</v>
       </c>
       <c r="E26" t="n">
-        <v>44506.99999999999</v>
+        <v>17.90002586529976</v>
       </c>
       <c r="F26" t="n">
-        <v>25411.75000000001</v>
+        <v>11.5140058501222</v>
       </c>
     </row>
     <row r="27">
@@ -970,19 +970,19 @@
         <v>1996</v>
       </c>
       <c r="B27" t="n">
-        <v>4980.750000000002</v>
+        <v>13.68337912087913</v>
       </c>
       <c r="C27" t="n">
-        <v>21082.85</v>
+        <v>9.185844891436714</v>
       </c>
       <c r="D27" t="n">
-        <v>41552.39999999998</v>
+        <v>16.76967381397397</v>
       </c>
       <c r="E27" t="n">
-        <v>46149.05</v>
+        <v>18.04293506375325</v>
       </c>
       <c r="F27" t="n">
-        <v>26440.45</v>
+        <v>11.30667397663176</v>
       </c>
     </row>
     <row r="28">
@@ -990,19 +990,19 @@
         <v>1997</v>
       </c>
       <c r="B28" t="n">
-        <v>4719.199999999997</v>
+        <v>13.07257617728531</v>
       </c>
       <c r="C28" t="n">
-        <v>21789.69999999999</v>
+        <v>7.955953832127077</v>
       </c>
       <c r="D28" t="n">
-        <v>43040.89999999999</v>
+        <v>16.54142498696675</v>
       </c>
       <c r="E28" t="n">
-        <v>47705.8</v>
+        <v>17.49769927848614</v>
       </c>
       <c r="F28" t="n">
-        <v>27407.55000000001</v>
+        <v>10.87118526640702</v>
       </c>
     </row>
     <row r="29">
@@ -1010,19 +1010,19 @@
         <v>1998</v>
       </c>
       <c r="B29" t="n">
-        <v>5092.250000000002</v>
+        <v>14.10595567867037</v>
       </c>
       <c r="C29" t="n">
-        <v>22600.24999999999</v>
+        <v>9.094510598134747</v>
       </c>
       <c r="D29" t="n">
-        <v>44638.05</v>
+        <v>17.73287280205458</v>
       </c>
       <c r="E29" t="n">
-        <v>49360</v>
+        <v>18.57441888087207</v>
       </c>
       <c r="F29" t="n">
-        <v>28437.9</v>
+        <v>11.56912428073786</v>
       </c>
     </row>
     <row r="30">
@@ -1030,19 +1030,19 @@
         <v>1999</v>
       </c>
       <c r="B30" t="n">
-        <v>5176.050000000003</v>
+        <v>14.37791666666667</v>
       </c>
       <c r="C30" t="n">
-        <v>23585.24999999999</v>
+        <v>11.16960124267567</v>
       </c>
       <c r="D30" t="n">
-        <v>46246.59999999995</v>
+        <v>18.0698096978006</v>
       </c>
       <c r="E30" t="n">
-        <v>50957.94999999998</v>
+        <v>17.96138243200969</v>
       </c>
       <c r="F30" t="n">
-        <v>29422.44999999999</v>
+        <v>10.94636400308503</v>
       </c>
     </row>
     <row r="31">
@@ -1050,19 +1050,19 @@
         <v>2000</v>
       </c>
       <c r="B31" t="n">
-        <v>4838.45</v>
+        <v>13.25602739726027</v>
       </c>
       <c r="C31" t="n">
-        <v>24312.04999999998</v>
+        <v>8.199662236029731</v>
       </c>
       <c r="D31" t="n">
-        <v>47725.54999999994</v>
+        <v>16.45076713953627</v>
       </c>
       <c r="E31" t="n">
-        <v>52608.64999999998</v>
+        <v>18.13762372208706</v>
       </c>
       <c r="F31" t="n">
-        <v>30404.44999999998</v>
+        <v>10.79289526090309</v>
       </c>
     </row>
     <row r="32">
@@ -1070,19 +1070,19 @@
         <v>2001</v>
       </c>
       <c r="B32" t="n">
-        <v>4955.899999999999</v>
+        <v>13.6526170798898</v>
       </c>
       <c r="C32" t="n">
-        <v>25135.59999999999</v>
+        <v>9.34550182287674</v>
       </c>
       <c r="D32" t="n">
-        <v>49196.99999999991</v>
+        <v>16.35055788065424</v>
       </c>
       <c r="E32" t="n">
-        <v>54264.04999999997</v>
+        <v>18.39052333760535</v>
       </c>
       <c r="F32" t="n">
-        <v>31409.94999999998</v>
+        <v>11.04666190500982</v>
       </c>
     </row>
     <row r="33">
@@ -1090,19 +1090,19 @@
         <v>2002</v>
       </c>
       <c r="B33" t="n">
-        <v>4929.550000000002</v>
+        <v>13.65526315789474</v>
       </c>
       <c r="C33" t="n">
-        <v>25982.84999999998</v>
+        <v>9.624668559807608</v>
       </c>
       <c r="D33" t="n">
-        <v>50719.54999999988</v>
+        <v>16.91099514154564</v>
       </c>
       <c r="E33" t="n">
-        <v>55792.05</v>
+        <v>17.18211692597339</v>
       </c>
       <c r="F33" t="n">
-        <v>32441.69999999998</v>
+        <v>11.45930397697813</v>
       </c>
     </row>
     <row r="34">
@@ -1110,19 +1110,19 @@
         <v>2003</v>
       </c>
       <c r="B34" t="n">
-        <v>5192.349999999999</v>
+        <v>14.22561643835616</v>
       </c>
       <c r="C34" t="n">
-        <v>26801.59999999997</v>
+        <v>9.204162983997863</v>
       </c>
       <c r="D34" t="n">
-        <v>52278.94999999985</v>
+        <v>17.3220988477093</v>
       </c>
       <c r="E34" t="n">
-        <v>57527.49999999999</v>
+        <v>19.05034909702145</v>
       </c>
       <c r="F34" t="n">
-        <v>33520.44999999996</v>
+        <v>11.85010113018455</v>
       </c>
     </row>
     <row r="35">
@@ -1130,19 +1130,19 @@
         <v>2004</v>
       </c>
       <c r="B35" t="n">
-        <v>5018.449999999997</v>
+        <v>13.74917808219177</v>
       </c>
       <c r="C35" t="n">
-        <v>27724.24999999997</v>
+        <v>10.35393514426664</v>
       </c>
       <c r="D35" t="n">
-        <v>53761.54999999983</v>
+        <v>16.4826604268979</v>
       </c>
       <c r="E35" t="n">
-        <v>59179.3</v>
+        <v>18.1614168380111</v>
       </c>
       <c r="F35" t="n">
-        <v>34481.84999999996</v>
+        <v>10.57880544706722</v>
       </c>
     </row>
     <row r="36">
@@ -1150,19 +1150,19 @@
         <v>2005</v>
       </c>
       <c r="B36" t="n">
-        <v>5321.000000000002</v>
+        <v>14.57808219178083</v>
       </c>
       <c r="C36" t="n">
-        <v>28566.39999999998</v>
+        <v>9.472265946047408</v>
       </c>
       <c r="D36" t="n">
-        <v>55421.94999999982</v>
+        <v>18.42728198271316</v>
       </c>
       <c r="E36" t="n">
-        <v>60922.35000000001</v>
+        <v>19.14360235693491</v>
       </c>
       <c r="F36" t="n">
-        <v>35557.24999999998</v>
+        <v>11.80411745051159</v>
       </c>
     </row>
     <row r="37">
@@ -1170,19 +1170,19 @@
         <v>2006</v>
       </c>
       <c r="B37" t="n">
-        <v>5478.450000000003</v>
+        <v>15.09214876033059</v>
       </c>
       <c r="C37" t="n">
-        <v>29635.59999999999</v>
+        <v>11.98524739940053</v>
       </c>
       <c r="D37" t="n">
-        <v>57037.84999999982</v>
+        <v>17.9596404613485</v>
       </c>
       <c r="E37" t="n">
-        <v>62644.10000000002</v>
+        <v>19.34326224841038</v>
       </c>
       <c r="F37" t="n">
-        <v>36628.84999999999</v>
+        <v>11.77613171141861</v>
       </c>
     </row>
     <row r="38">
@@ -1190,19 +1190,19 @@
         <v>2007</v>
       </c>
       <c r="B38" t="n">
-        <v>5001.050000000003</v>
+        <v>13.70150684931508</v>
       </c>
       <c r="C38" t="n">
-        <v>30472.59999999999</v>
+        <v>9.433169415548891</v>
       </c>
       <c r="D38" t="n">
-        <v>58554.44999999982</v>
+        <v>16.86329275232252</v>
       </c>
       <c r="E38" t="n">
-        <v>64317.55000000002</v>
+        <v>18.39992676356968</v>
       </c>
       <c r="F38" t="n">
-        <v>37602.85000000001</v>
+        <v>10.71495795338498</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         <v>2008</v>
       </c>
       <c r="B39" t="n">
-        <v>4979.299999999997</v>
+        <v>13.60464480874316</v>
       </c>
       <c r="C39" t="n">
-        <v>31265.35</v>
+        <v>8.81519966390713</v>
       </c>
       <c r="D39" t="n">
-        <v>60095.24999999985</v>
+        <v>17.11717904123431</v>
       </c>
       <c r="E39" t="n">
-        <v>66004.29999999999</v>
+        <v>18.53423833438663</v>
       </c>
       <c r="F39" t="n">
-        <v>38561.85</v>
+        <v>10.54037997775419</v>
       </c>
     </row>
     <row r="40">
@@ -1230,19 +1230,19 @@
         <v>2009</v>
       </c>
       <c r="B40" t="n">
-        <v>5360.549999999996</v>
+        <v>14.68643835616437</v>
       </c>
       <c r="C40" t="n">
-        <v>32175.05</v>
+        <v>10.20572444071008</v>
       </c>
       <c r="D40" t="n">
-        <v>61725.94999999982</v>
+        <v>18.10788108836521</v>
       </c>
       <c r="E40" t="n">
-        <v>67748.89999999997</v>
+        <v>19.16450259059116</v>
       </c>
       <c r="F40" t="n">
-        <v>39637.40000000005</v>
+        <v>11.8053302171495</v>
       </c>
     </row>
     <row r="41">
@@ -1250,19 +1250,19 @@
         <v>2010</v>
       </c>
       <c r="B41" t="n">
-        <v>5260.599999999998</v>
+        <v>14.41260273972602</v>
       </c>
       <c r="C41" t="n">
-        <v>33132.34999999999</v>
+        <v>10.75006360489678</v>
       </c>
       <c r="D41" t="n">
-        <v>63336.7499999998</v>
+        <v>17.90008660536666</v>
       </c>
       <c r="E41" t="n">
-        <v>69482.29999999997</v>
+        <v>19.04961415859339</v>
       </c>
       <c r="F41" t="n">
-        <v>40596.50000000005</v>
+        <v>10.55331880670815</v>
       </c>
     </row>
     <row r="42">
@@ -1270,19 +1270,19 @@
         <v>2011</v>
       </c>
       <c r="B42" t="n">
-        <v>5025.699999999998</v>
+        <v>13.80686813186813</v>
       </c>
       <c r="C42" t="n">
-        <v>33943.1</v>
+        <v>9.230337793313449</v>
       </c>
       <c r="D42" t="n">
-        <v>64914.94999999979</v>
+        <v>17.53956139126776</v>
       </c>
       <c r="E42" t="n">
-        <v>71186.59999999993</v>
+        <v>18.73206102346298</v>
       </c>
       <c r="F42" t="n">
-        <v>41528.95000000005</v>
+        <v>10.25003607398595</v>
       </c>
     </row>
     <row r="43">
@@ -1290,19 +1290,19 @@
         <v>2012</v>
       </c>
       <c r="B43" t="n">
-        <v>5319.400000000001</v>
+        <v>14.53387978142077</v>
       </c>
       <c r="C43" t="n">
-        <v>34854.19999999998</v>
+        <v>10.11352019553092</v>
       </c>
       <c r="D43" t="n">
-        <v>66561.64999999983</v>
+        <v>18.28834682847546</v>
       </c>
       <c r="E43" t="n">
-        <v>72899.69999999991</v>
+        <v>18.82426153286373</v>
       </c>
       <c r="F43" t="n">
-        <v>42577.45000000006</v>
+        <v>11.50815256602159</v>
       </c>
     </row>
     <row r="44">
@@ -1310,19 +1310,19 @@
         <v>2013</v>
       </c>
       <c r="B44" t="n">
-        <v>5260.700000000003</v>
+        <v>14.41287671232878</v>
       </c>
       <c r="C44" t="n">
-        <v>35837.29999999995</v>
+        <v>11.03570577995034</v>
       </c>
       <c r="D44" t="n">
-        <v>68184.94999999987</v>
+        <v>18.0394323827305</v>
       </c>
       <c r="E44" t="n">
-        <v>74611.79999999993</v>
+        <v>18.81439414709634</v>
       </c>
       <c r="F44" t="n">
-        <v>43519.65000000009</v>
+        <v>10.36639296267414</v>
       </c>
     </row>
     <row r="45">
@@ -1330,19 +1330,19 @@
         <v>2014</v>
       </c>
       <c r="B45" t="n">
-        <v>5444.2</v>
+        <v>14.91561643835616</v>
       </c>
       <c r="C45" t="n">
-        <v>36790.74999999996</v>
+        <v>10.71650784199945</v>
       </c>
       <c r="D45" t="n">
-        <v>69895.7999999999</v>
+        <v>18.9987849712388</v>
       </c>
       <c r="E45" t="n">
-        <v>76345.34999999989</v>
+        <v>19.04743906681627</v>
       </c>
       <c r="F45" t="n">
-        <v>44566.00000000007</v>
+        <v>11.48604774959429</v>
       </c>
     </row>
     <row r="46">
@@ -1350,19 +1350,19 @@
         <v>2015</v>
       </c>
       <c r="B46" t="n">
-        <v>5461.299999999998</v>
+        <v>15.00357142857142</v>
       </c>
       <c r="C46" t="n">
-        <v>37793.79999999998</v>
+        <v>11.39063491957302</v>
       </c>
       <c r="D46" t="n">
-        <v>71624.24999999994</v>
+        <v>19.20273390078284</v>
       </c>
       <c r="E46" t="n">
-        <v>78058.79999999986</v>
+        <v>18.83149390290018</v>
       </c>
       <c r="F46" t="n">
-        <v>45582.35000000006</v>
+        <v>11.17213095379994</v>
       </c>
     </row>
     <row r="47">
@@ -1370,19 +1370,19 @@
         <v>2016</v>
       </c>
       <c r="B47" t="n">
-        <v>5294.450000000003</v>
+        <v>14.46571038251367</v>
       </c>
       <c r="C47" t="n">
-        <v>38670.64999999997</v>
+        <v>9.760886098017281</v>
       </c>
       <c r="D47" t="n">
-        <v>73212.04999999996</v>
+        <v>17.6593707022064</v>
       </c>
       <c r="E47" t="n">
-        <v>79790.44999999985</v>
+        <v>19.02697275981413</v>
       </c>
       <c r="F47" t="n">
-        <v>46680.50000000008</v>
+        <v>12.05784924949783</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56651_丽江.xlsx
+++ b/my_work/data1/YearMeanER56651_丽江.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,31 @@
           <t>S4</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RHmean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>s1_RH</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>s2_RH</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>s3_RH</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>s4_RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +509,21 @@
       <c r="F2" t="n">
         <v>11.43532608695653</v>
       </c>
+      <c r="G2" t="n">
+        <v>60.87912087912088</v>
+      </c>
+      <c r="H2" t="n">
+        <v>43.96666666666667</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60.17777777777778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>85.01086956521739</v>
+      </c>
+      <c r="K2" t="n">
+        <v>53.97826086956522</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -504,6 +544,21 @@
       <c r="F3" t="n">
         <v>20.82538397920606</v>
       </c>
+      <c r="G3" t="n">
+        <v>65.06593406593407</v>
+      </c>
+      <c r="H3" t="n">
+        <v>98.41535580524345</v>
+      </c>
+      <c r="I3" t="n">
+        <v>147.3096459096459</v>
+      </c>
+      <c r="J3" t="n">
+        <v>175.8805529300567</v>
+      </c>
+      <c r="K3" t="n">
+        <v>127.7932419659735</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +579,21 @@
       <c r="F4" t="n">
         <v>9.699188956295723</v>
       </c>
+      <c r="G4" t="n">
+        <v>65.16438356164383</v>
+      </c>
+      <c r="H4" t="n">
+        <v>47.64905950894715</v>
+      </c>
+      <c r="I4" t="n">
+        <v>62.75065544955655</v>
+      </c>
+      <c r="J4" t="n">
+        <v>86.00957122750062</v>
+      </c>
+      <c r="K4" t="n">
+        <v>69.81297002136928</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -544,6 +614,21 @@
       <c r="F5" t="n">
         <v>11.60596944517713</v>
       </c>
+      <c r="G5" t="n">
+        <v>62.16666666666666</v>
+      </c>
+      <c r="H5" t="n">
+        <v>47.52361603855986</v>
+      </c>
+      <c r="I5" t="n">
+        <v>62.75550170823688</v>
+      </c>
+      <c r="J5" t="n">
+        <v>82.59793012203805</v>
+      </c>
+      <c r="K5" t="n">
+        <v>58.53057576110184</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -564,6 +649,21 @@
       <c r="F6" t="n">
         <v>10.51636923309975</v>
       </c>
+      <c r="G6" t="n">
+        <v>66.17534246575343</v>
+      </c>
+      <c r="H6" t="n">
+        <v>51.07248462265066</v>
+      </c>
+      <c r="I6" t="n">
+        <v>62.46984067811249</v>
+      </c>
+      <c r="J6" t="n">
+        <v>83.26736880567432</v>
+      </c>
+      <c r="K6" t="n">
+        <v>70.25576712783807</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -584,6 +684,21 @@
       <c r="F7" t="n">
         <v>16.00581846165499</v>
       </c>
+      <c r="G7" t="n">
+        <v>68.10580204778157</v>
+      </c>
+      <c r="H7" t="n">
+        <v>49.62302760691835</v>
+      </c>
+      <c r="I7" t="n">
+        <v>69.5326356118474</v>
+      </c>
+      <c r="J7" t="n">
+        <v>84.3507322696269</v>
+      </c>
+      <c r="K7" t="n">
+        <v>83.4127883563919</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -604,6 +719,21 @@
       <c r="F8" t="n">
         <v>20.33212846153973</v>
       </c>
+      <c r="G8" t="n">
+        <v>63.88154269972452</v>
+      </c>
+      <c r="H8" t="n">
+        <v>48.70362952367324</v>
+      </c>
+      <c r="I8" t="n">
+        <v>56.34651247925107</v>
+      </c>
+      <c r="J8" t="n">
+        <v>166.6851728820838</v>
+      </c>
+      <c r="K8" t="n">
+        <v>129.7001390038738</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -624,6 +754,21 @@
       <c r="F9" t="n">
         <v>11.05306661371239</v>
       </c>
+      <c r="G9" t="n">
+        <v>65.03561643835616</v>
+      </c>
+      <c r="H9" t="n">
+        <v>46.83004032804081</v>
+      </c>
+      <c r="I9" t="n">
+        <v>71.77303859867308</v>
+      </c>
+      <c r="J9" t="n">
+        <v>85.31179535741396</v>
+      </c>
+      <c r="K9" t="n">
+        <v>60.26847977178124</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -644,6 +789,21 @@
       <c r="F10" t="n">
         <v>9.761989854496875</v>
       </c>
+      <c r="G10" t="n">
+        <v>62.36986301369863</v>
+      </c>
+      <c r="H10" t="n">
+        <v>42.35366711475601</v>
+      </c>
+      <c r="I10" t="n">
+        <v>56.60190152306235</v>
+      </c>
+      <c r="J10" t="n">
+        <v>82.70991081910232</v>
+      </c>
+      <c r="K10" t="n">
+        <v>70.18770086708457</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -664,6 +824,21 @@
       <c r="F11" t="n">
         <v>10.7930651071141</v>
       </c>
+      <c r="G11" t="n">
+        <v>64.1256830601093</v>
+      </c>
+      <c r="H11" t="n">
+        <v>46.56432601225006</v>
+      </c>
+      <c r="I11" t="n">
+        <v>66.56705386289079</v>
+      </c>
+      <c r="J11" t="n">
+        <v>82.48597729151199</v>
+      </c>
+      <c r="K11" t="n">
+        <v>63.45856196594657</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -684,6 +859,21 @@
       <c r="F12" t="n">
         <v>11.71133766420777</v>
       </c>
+      <c r="G12" t="n">
+        <v>62.38904109589041</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50.63960362235834</v>
+      </c>
+      <c r="I12" t="n">
+        <v>66.96227531717463</v>
+      </c>
+      <c r="J12" t="n">
+        <v>81.12484757925556</v>
+      </c>
+      <c r="K12" t="n">
+        <v>53.43976697789072</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -704,6 +894,21 @@
       <c r="F13" t="n">
         <v>9.657188452871823</v>
       </c>
+      <c r="G13" t="n">
+        <v>62.92054794520548</v>
+      </c>
+      <c r="H13" t="n">
+        <v>46.79599559580397</v>
+      </c>
+      <c r="I13" t="n">
+        <v>60.06551950897995</v>
+      </c>
+      <c r="J13" t="n">
+        <v>81.13179182151364</v>
+      </c>
+      <c r="K13" t="n">
+        <v>66.0482583367162</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -724,6 +929,21 @@
       <c r="F14" t="n">
         <v>10.42199088149294</v>
       </c>
+      <c r="G14" t="n">
+        <v>61.88397790055249</v>
+      </c>
+      <c r="H14" t="n">
+        <v>51.89773328439782</v>
+      </c>
+      <c r="I14" t="n">
+        <v>54.07764307152726</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79.3275194763208</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64.78705908243501</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -744,6 +964,21 @@
       <c r="F15" t="n">
         <v>10.87686946610319</v>
       </c>
+      <c r="G15" t="n">
+        <v>59.72950819672131</v>
+      </c>
+      <c r="H15" t="n">
+        <v>38.4604146514769</v>
+      </c>
+      <c r="I15" t="n">
+        <v>65.72612794584096</v>
+      </c>
+      <c r="J15" t="n">
+        <v>80.25355999430784</v>
+      </c>
+      <c r="K15" t="n">
+        <v>57.03029412046125</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -764,6 +999,21 @@
       <c r="F16" t="n">
         <v>10.8763790159359</v>
       </c>
+      <c r="G16" t="n">
+        <v>63.59452054794521</v>
+      </c>
+      <c r="H16" t="n">
+        <v>46.48289349612752</v>
+      </c>
+      <c r="I16" t="n">
+        <v>66.38160580160265</v>
+      </c>
+      <c r="J16" t="n">
+        <v>84.32884304341638</v>
+      </c>
+      <c r="K16" t="n">
+        <v>59.46772058826588</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -784,6 +1034,21 @@
       <c r="F17" t="n">
         <v>10.33235194582539</v>
       </c>
+      <c r="G17" t="n">
+        <v>60.9972602739726</v>
+      </c>
+      <c r="H17" t="n">
+        <v>44.11647659440142</v>
+      </c>
+      <c r="I17" t="n">
+        <v>55.86133632749014</v>
+      </c>
+      <c r="J17" t="n">
+        <v>83.43835698960235</v>
+      </c>
+      <c r="K17" t="n">
+        <v>62.93986652813332</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -804,6 +1069,21 @@
       <c r="F18" t="n">
         <v>11.25524295593288</v>
       </c>
+      <c r="G18" t="n">
+        <v>61.53150684931507</v>
+      </c>
+      <c r="H18" t="n">
+        <v>46.41240529549335</v>
+      </c>
+      <c r="I18" t="n">
+        <v>59.72375094865374</v>
+      </c>
+      <c r="J18" t="n">
+        <v>84.33085170640872</v>
+      </c>
+      <c r="K18" t="n">
+        <v>57.98847681008841</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -824,6 +1104,21 @@
       <c r="F19" t="n">
         <v>11.52723090169492</v>
       </c>
+      <c r="G19" t="n">
+        <v>63.2103825136612</v>
+      </c>
+      <c r="H19" t="n">
+        <v>45.97156489335708</v>
+      </c>
+      <c r="I19" t="n">
+        <v>58.92004121921598</v>
+      </c>
+      <c r="J19" t="n">
+        <v>81.2535962142001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>69.16291822619661</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -844,6 +1139,21 @@
       <c r="F20" t="n">
         <v>9.819861205453202</v>
       </c>
+      <c r="G20" t="n">
+        <v>63.72252747252747</v>
+      </c>
+      <c r="H20" t="n">
+        <v>45.48857294325952</v>
+      </c>
+      <c r="I20" t="n">
+        <v>61.12000045295841</v>
+      </c>
+      <c r="J20" t="n">
+        <v>84.04674281554065</v>
+      </c>
+      <c r="K20" t="n">
+        <v>66.80611867637171</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -864,6 +1174,21 @@
       <c r="F21" t="n">
         <v>11.1746724044071</v>
       </c>
+      <c r="G21" t="n">
+        <v>67.32409972299169</v>
+      </c>
+      <c r="H21" t="n">
+        <v>53.78320636603621</v>
+      </c>
+      <c r="I21" t="n">
+        <v>71.31244444947731</v>
+      </c>
+      <c r="J21" t="n">
+        <v>83.79827800916338</v>
+      </c>
+      <c r="K21" t="n">
+        <v>63.53050128996056</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -884,6 +1209,21 @@
       <c r="F22" t="n">
         <v>10.60521618026821</v>
       </c>
+      <c r="G22" t="n">
+        <v>64.66573816155989</v>
+      </c>
+      <c r="H22" t="n">
+        <v>50.26722703782063</v>
+      </c>
+      <c r="I22" t="n">
+        <v>62.9145827161053</v>
+      </c>
+      <c r="J22" t="n">
+        <v>86.03144132594565</v>
+      </c>
+      <c r="K22" t="n">
+        <v>62.57725825593364</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -904,6 +1244,21 @@
       <c r="F23" t="n">
         <v>9.141904523698566</v>
       </c>
+      <c r="G23" t="n">
+        <v>65.50410958904109</v>
+      </c>
+      <c r="H23" t="n">
+        <v>57.06887062678924</v>
+      </c>
+      <c r="I23" t="n">
+        <v>57.99905091906784</v>
+      </c>
+      <c r="J23" t="n">
+        <v>83.20686349267332</v>
+      </c>
+      <c r="K23" t="n">
+        <v>66.33236150278189</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -924,6 +1279,21 @@
       <c r="F24" t="n">
         <v>10.85697722308368</v>
       </c>
+      <c r="G24" t="n">
+        <v>65.99449035812673</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55.00076522918655</v>
+      </c>
+      <c r="I24" t="n">
+        <v>60.18887834354521</v>
+      </c>
+      <c r="J24" t="n">
+        <v>85.29897652189752</v>
+      </c>
+      <c r="K24" t="n">
+        <v>66.21013436416068</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -944,6 +1314,21 @@
       <c r="F25" t="n">
         <v>10.57453236112048</v>
       </c>
+      <c r="G25" t="n">
+        <v>61.86225895316804</v>
+      </c>
+      <c r="H25" t="n">
+        <v>47.95556405810207</v>
+      </c>
+      <c r="I25" t="n">
+        <v>61.0020755861928</v>
+      </c>
+      <c r="J25" t="n">
+        <v>81.92554418357663</v>
+      </c>
+      <c r="K25" t="n">
+        <v>59.58924059091479</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -964,6 +1349,21 @@
       <c r="F26" t="n">
         <v>11.5140058501222</v>
       </c>
+      <c r="G26" t="n">
+        <v>63.20224719101124</v>
+      </c>
+      <c r="H26" t="n">
+        <v>44.01073667481013</v>
+      </c>
+      <c r="I26" t="n">
+        <v>62.36668972873548</v>
+      </c>
+      <c r="J26" t="n">
+        <v>84.3247156300416</v>
+      </c>
+      <c r="K26" t="n">
+        <v>65.58889275374631</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -984,6 +1384,21 @@
       <c r="F27" t="n">
         <v>11.30667397663176</v>
       </c>
+      <c r="G27" t="n">
+        <v>60.93131868131868</v>
+      </c>
+      <c r="H27" t="n">
+        <v>46.14456374083123</v>
+      </c>
+      <c r="I27" t="n">
+        <v>59.33740766365262</v>
+      </c>
+      <c r="J27" t="n">
+        <v>82.00352951771785</v>
+      </c>
+      <c r="K27" t="n">
+        <v>58.66944448645376</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1004,6 +1419,21 @@
       <c r="F28" t="n">
         <v>10.87118526640702</v>
       </c>
+      <c r="G28" t="n">
+        <v>60.02770083102493</v>
+      </c>
+      <c r="H28" t="n">
+        <v>46.92382848600924</v>
+      </c>
+      <c r="I28" t="n">
+        <v>58.8498616226775</v>
+      </c>
+      <c r="J28" t="n">
+        <v>81.4778169946413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>55.6074382720717</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1024,6 +1454,21 @@
       <c r="F29" t="n">
         <v>11.56912428073786</v>
       </c>
+      <c r="G29" t="n">
+        <v>63.6786703601108</v>
+      </c>
+      <c r="H29" t="n">
+        <v>44.47693142762233</v>
+      </c>
+      <c r="I29" t="n">
+        <v>63.89944902882063</v>
+      </c>
+      <c r="J29" t="n">
+        <v>83.8719757443849</v>
+      </c>
+      <c r="K29" t="n">
+        <v>65.16230486968969</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1044,6 +1489,21 @@
       <c r="F30" t="n">
         <v>10.94636400308503</v>
       </c>
+      <c r="G30" t="n">
+        <v>62.07222222222222</v>
+      </c>
+      <c r="H30" t="n">
+        <v>36.24131383626542</v>
+      </c>
+      <c r="I30" t="n">
+        <v>62.13221610032023</v>
+      </c>
+      <c r="J30" t="n">
+        <v>85.09857750827095</v>
+      </c>
+      <c r="K30" t="n">
+        <v>67.33145389966691</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1064,6 +1524,21 @@
       <c r="F31" t="n">
         <v>10.79289526090309</v>
       </c>
+      <c r="G31" t="n">
+        <v>64.41369863013699</v>
+      </c>
+      <c r="H31" t="n">
+        <v>44.69157015373628</v>
+      </c>
+      <c r="I31" t="n">
+        <v>67.37507929780571</v>
+      </c>
+      <c r="J31" t="n">
+        <v>83.71846279900295</v>
+      </c>
+      <c r="K31" t="n">
+        <v>64.19925493369203</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1084,6 +1559,21 @@
       <c r="F32" t="n">
         <v>11.04666190500982</v>
       </c>
+      <c r="G32" t="n">
+        <v>64.0495867768595</v>
+      </c>
+      <c r="H32" t="n">
+        <v>42.7156356197049</v>
+      </c>
+      <c r="I32" t="n">
+        <v>65.3667591131627</v>
+      </c>
+      <c r="J32" t="n">
+        <v>85.71119189889014</v>
+      </c>
+      <c r="K32" t="n">
+        <v>64.78477451014882</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1104,6 +1594,21 @@
       <c r="F33" t="n">
         <v>11.45930397697813</v>
       </c>
+      <c r="G33" t="n">
+        <v>63.03601108033241</v>
+      </c>
+      <c r="H33" t="n">
+        <v>48.2327599507832</v>
+      </c>
+      <c r="I33" t="n">
+        <v>63.08095339684794</v>
+      </c>
+      <c r="J33" t="n">
+        <v>85.34123546554322</v>
+      </c>
+      <c r="K33" t="n">
+        <v>58.25038213747416</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1124,6 +1629,21 @@
       <c r="F34" t="n">
         <v>11.85010113018455</v>
       </c>
+      <c r="G34" t="n">
+        <v>61.07671232876712</v>
+      </c>
+      <c r="H34" t="n">
+        <v>45.3248084438976</v>
+      </c>
+      <c r="I34" t="n">
+        <v>60.36352696040492</v>
+      </c>
+      <c r="J34" t="n">
+        <v>81.90588299419069</v>
+      </c>
+      <c r="K34" t="n">
+        <v>59.13315632758124</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1144,6 +1664,21 @@
       <c r="F35" t="n">
         <v>10.57880544706722</v>
       </c>
+      <c r="G35" t="n">
+        <v>62.66301369863014</v>
+      </c>
+      <c r="H35" t="n">
+        <v>42.04805342715441</v>
+      </c>
+      <c r="I35" t="n">
+        <v>66.28970908747698</v>
+      </c>
+      <c r="J35" t="n">
+        <v>83.06419438037163</v>
+      </c>
+      <c r="K35" t="n">
+        <v>61.52318648182154</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1164,6 +1699,21 @@
       <c r="F36" t="n">
         <v>11.80411745051159</v>
       </c>
+      <c r="G36" t="n">
+        <v>59.02739726027397</v>
+      </c>
+      <c r="H36" t="n">
+        <v>49.53386726030172</v>
+      </c>
+      <c r="I36" t="n">
+        <v>50.78340339656568</v>
+      </c>
+      <c r="J36" t="n">
+        <v>79.77243689543882</v>
+      </c>
+      <c r="K36" t="n">
+        <v>58.47307811393284</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1184,6 +1734,21 @@
       <c r="F37" t="n">
         <v>11.77613171141861</v>
       </c>
+      <c r="G37" t="n">
+        <v>56.66942148760331</v>
+      </c>
+      <c r="H37" t="n">
+        <v>38.95037630289224</v>
+      </c>
+      <c r="I37" t="n">
+        <v>56.10750992743478</v>
+      </c>
+      <c r="J37" t="n">
+        <v>76.01969374328266</v>
+      </c>
+      <c r="K37" t="n">
+        <v>58.22253345776014</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1204,6 +1769,21 @@
       <c r="F38" t="n">
         <v>10.71495795338498</v>
       </c>
+      <c r="G38" t="n">
+        <v>64.41917808219178</v>
+      </c>
+      <c r="H38" t="n">
+        <v>46.05500418114325</v>
+      </c>
+      <c r="I38" t="n">
+        <v>64.00118142777401</v>
+      </c>
+      <c r="J38" t="n">
+        <v>81.89151841025307</v>
+      </c>
+      <c r="K38" t="n">
+        <v>67.81763623323651</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1224,6 +1804,21 @@
       <c r="F39" t="n">
         <v>10.54037997775419</v>
       </c>
+      <c r="G39" t="n">
+        <v>64.13934426229508</v>
+      </c>
+      <c r="H39" t="n">
+        <v>48.6819231228697</v>
+      </c>
+      <c r="I39" t="n">
+        <v>61.74726572997554</v>
+      </c>
+      <c r="J39" t="n">
+        <v>81.81403824358971</v>
+      </c>
+      <c r="K39" t="n">
+        <v>66.94366995905692</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1244,6 +1839,21 @@
       <c r="F40" t="n">
         <v>11.8053302171495</v>
       </c>
+      <c r="G40" t="n">
+        <v>58.84931506849315</v>
+      </c>
+      <c r="H40" t="n">
+        <v>45.08535470136522</v>
+      </c>
+      <c r="I40" t="n">
+        <v>58.45876116186786</v>
+      </c>
+      <c r="J40" t="n">
+        <v>79.58493519829989</v>
+      </c>
+      <c r="K40" t="n">
+        <v>54.78199641259845</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1264,6 +1874,21 @@
       <c r="F41" t="n">
         <v>10.55331880670815</v>
       </c>
+      <c r="G41" t="n">
+        <v>59.93972602739726</v>
+      </c>
+      <c r="H41" t="n">
+        <v>36.43428171890406</v>
+      </c>
+      <c r="I41" t="n">
+        <v>56.42262374903152</v>
+      </c>
+      <c r="J41" t="n">
+        <v>79.76722755650326</v>
+      </c>
+      <c r="K41" t="n">
+        <v>69.17154343926737</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1284,6 +1909,21 @@
       <c r="F42" t="n">
         <v>10.25003607398595</v>
       </c>
+      <c r="G42" t="n">
+        <v>61.67857142857143</v>
+      </c>
+      <c r="H42" t="n">
+        <v>44.55544136762813</v>
+      </c>
+      <c r="I42" t="n">
+        <v>59.53211674449485</v>
+      </c>
+      <c r="J42" t="n">
+        <v>80.54094812561416</v>
+      </c>
+      <c r="K42" t="n">
+        <v>64.13229938520942</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1304,6 +1944,21 @@
       <c r="F43" t="n">
         <v>11.50815256602159</v>
       </c>
+      <c r="G43" t="n">
+        <v>55.16393442622951</v>
+      </c>
+      <c r="H43" t="n">
+        <v>40.25885100403987</v>
+      </c>
+      <c r="I43" t="n">
+        <v>52.88496831587356</v>
+      </c>
+      <c r="J43" t="n">
+        <v>79.97327117527841</v>
+      </c>
+      <c r="K43" t="n">
+        <v>50.05578586288271</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1324,6 +1979,21 @@
       <c r="F44" t="n">
         <v>10.36639296267414</v>
       </c>
+      <c r="G44" t="n">
+        <v>57.58356164383562</v>
+      </c>
+      <c r="H44" t="n">
+        <v>34.991765011156</v>
+      </c>
+      <c r="I44" t="n">
+        <v>56.47126338808652</v>
+      </c>
+      <c r="J44" t="n">
+        <v>79.81492686060085</v>
+      </c>
+      <c r="K44" t="n">
+        <v>60.97886723764003</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1344,6 +2014,21 @@
       <c r="F45" t="n">
         <v>11.48604774959429</v>
       </c>
+      <c r="G45" t="n">
+        <v>55.66575342465753</v>
+      </c>
+      <c r="H45" t="n">
+        <v>38.55546405567951</v>
+      </c>
+      <c r="I45" t="n">
+        <v>49.57660728997897</v>
+      </c>
+      <c r="J45" t="n">
+        <v>80.31320572674566</v>
+      </c>
+      <c r="K45" t="n">
+        <v>56.30411812214826</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1364,6 +2049,21 @@
       <c r="F46" t="n">
         <v>11.17213095379994</v>
       </c>
+      <c r="G46" t="n">
+        <v>56.69230769230769</v>
+      </c>
+      <c r="H46" t="n">
+        <v>39.635454652311</v>
+      </c>
+      <c r="I46" t="n">
+        <v>50.25908359659317</v>
+      </c>
+      <c r="J46" t="n">
+        <v>77.89470875789941</v>
+      </c>
+      <c r="K46" t="n">
+        <v>60.79678389263205</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1383,6 +2083,21 @@
       </c>
       <c r="F47" t="n">
         <v>12.05784924949783</v>
+      </c>
+      <c r="G47" t="n">
+        <v>64.15300546448087</v>
+      </c>
+      <c r="H47" t="n">
+        <v>49.39159840277264</v>
+      </c>
+      <c r="I47" t="n">
+        <v>63.17867124831421</v>
+      </c>
+      <c r="J47" t="n">
+        <v>82.99885552997718</v>
+      </c>
+      <c r="K47" t="n">
+        <v>63.35648678144166</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56651_丽江.xlsx
+++ b/my_work/data1/YearMeanER56651_丽江.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,1611 +492,1576 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="B2" t="n">
-        <v>13.90892857142857</v>
+        <v>13.35645604395604</v>
       </c>
       <c r="C2" t="n">
-        <v>9.573333333333331</v>
+        <v>16.61123595505617</v>
       </c>
       <c r="D2" t="n">
-        <v>16.71111111111111</v>
+        <v>39.12142857142856</v>
       </c>
       <c r="E2" t="n">
-        <v>17.88260869565217</v>
+        <v>38.55760869565216</v>
       </c>
       <c r="F2" t="n">
-        <v>11.43532608695653</v>
+        <v>20.70108695652175</v>
       </c>
       <c r="G2" t="n">
-        <v>60.87912087912088</v>
+        <v>65.06593406593407</v>
       </c>
       <c r="H2" t="n">
-        <v>43.96666666666667</v>
+        <v>97.92134831460675</v>
       </c>
       <c r="I2" t="n">
-        <v>60.17777777777778</v>
+        <v>146.6483516483516</v>
       </c>
       <c r="J2" t="n">
-        <v>85.01086956521739</v>
+        <v>174.9565217391304</v>
       </c>
       <c r="K2" t="n">
-        <v>53.97826086956522</v>
+        <v>127.2065217391304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B3" t="n">
-        <v>13.35645604395604</v>
+        <v>13.30232876712328</v>
       </c>
       <c r="C3" t="n">
-        <v>16.71880149812733</v>
+        <v>8.851235955056179</v>
       </c>
       <c r="D3" t="n">
-        <v>39.30506715506714</v>
+        <v>17.50188383045527</v>
       </c>
       <c r="E3" t="n">
-        <v>38.75198487712664</v>
+        <v>18.35714792060492</v>
       </c>
       <c r="F3" t="n">
-        <v>20.82538397920606</v>
+        <v>9.697837901701329</v>
       </c>
       <c r="G3" t="n">
-        <v>65.06593406593407</v>
+        <v>65.16438356164383</v>
       </c>
       <c r="H3" t="n">
-        <v>98.41535580524345</v>
+        <v>47.64357053682897</v>
       </c>
       <c r="I3" t="n">
-        <v>147.3096459096459</v>
+        <v>62.74338847965221</v>
       </c>
       <c r="J3" t="n">
-        <v>175.8805529300567</v>
+        <v>85.99952741020793</v>
       </c>
       <c r="K3" t="n">
-        <v>127.7932419659735</v>
+        <v>69.80659262759924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B4" t="n">
-        <v>13.30232876712328</v>
+        <v>13.91653005464481</v>
       </c>
       <c r="C4" t="n">
-        <v>8.85243112775697</v>
+        <v>9.485178417088528</v>
       </c>
       <c r="D4" t="n">
-        <v>17.50390183686888</v>
+        <v>16.80771300912589</v>
       </c>
       <c r="E4" t="n">
-        <v>18.35926070518617</v>
+        <v>18.34192552087614</v>
       </c>
       <c r="F4" t="n">
-        <v>9.699188956295723</v>
+        <v>11.6059547598011</v>
       </c>
       <c r="G4" t="n">
-        <v>65.16438356164383</v>
+        <v>62.16666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>47.64905950894715</v>
+        <v>47.52355572018494</v>
       </c>
       <c r="I4" t="n">
-        <v>62.75065544955655</v>
+        <v>62.75542185142475</v>
       </c>
       <c r="J4" t="n">
-        <v>86.00957122750062</v>
+        <v>82.59782095011096</v>
       </c>
       <c r="K4" t="n">
-        <v>69.81297002136928</v>
+        <v>58.53050644160435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B5" t="n">
-        <v>13.91653005464481</v>
+        <v>13.90712328767123</v>
       </c>
       <c r="C5" t="n">
-        <v>9.485191550854472</v>
+        <v>9.541501982412093</v>
       </c>
       <c r="D5" t="n">
-        <v>16.80773518502054</v>
+        <v>17.82316168141897</v>
       </c>
       <c r="E5" t="n">
-        <v>18.34194848592594</v>
+        <v>18.306433973053</v>
       </c>
       <c r="F5" t="n">
-        <v>11.60596944517713</v>
+        <v>10.5163690734761</v>
       </c>
       <c r="G5" t="n">
-        <v>62.16666666666666</v>
+        <v>66.17534246575343</v>
       </c>
       <c r="H5" t="n">
-        <v>47.52361603855986</v>
+        <v>51.0724839524465</v>
       </c>
       <c r="I5" t="n">
-        <v>62.75550170823688</v>
+        <v>62.46983980056511</v>
       </c>
       <c r="J5" t="n">
-        <v>82.59793012203805</v>
+        <v>83.26736761902295</v>
       </c>
       <c r="K5" t="n">
-        <v>58.53057576110184</v>
+        <v>70.25576637436527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B6" t="n">
-        <v>13.90712328767123</v>
+        <v>14.11092150170649</v>
       </c>
       <c r="C6" t="n">
-        <v>9.541502128342827</v>
+        <v>8.451572244249025</v>
       </c>
       <c r="D6" t="n">
-        <v>17.82316192511012</v>
+        <v>16.51893584265295</v>
       </c>
       <c r="E6" t="n">
-        <v>18.30643422267311</v>
+        <v>17.4642003692723</v>
       </c>
       <c r="F6" t="n">
-        <v>10.51636923309975</v>
+        <v>16.0058184536738</v>
       </c>
       <c r="G6" t="n">
-        <v>66.17534246575343</v>
+        <v>68.10580204778157</v>
       </c>
       <c r="H6" t="n">
-        <v>51.07248462265066</v>
+        <v>49.62302759947163</v>
       </c>
       <c r="I6" t="n">
-        <v>62.46984067811249</v>
+        <v>69.53263560220401</v>
       </c>
       <c r="J6" t="n">
-        <v>83.26736880567432</v>
+        <v>84.35073225672851</v>
       </c>
       <c r="K6" t="n">
-        <v>70.25576712783807</v>
+        <v>83.41278831871827</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="B7" t="n">
-        <v>14.11092150170649</v>
+        <v>13.41143250688705</v>
       </c>
       <c r="C7" t="n">
-        <v>8.451572245870477</v>
+        <v>8.863500811733132</v>
       </c>
       <c r="D7" t="n">
-        <v>16.51893584533088</v>
+        <v>17.50350478947971</v>
       </c>
       <c r="E7" t="n">
-        <v>17.46420037198557</v>
+        <v>35.16499121284917</v>
       </c>
       <c r="F7" t="n">
-        <v>16.00581846165499</v>
+        <v>20.33212846145298</v>
       </c>
       <c r="G7" t="n">
-        <v>68.10580204778157</v>
+        <v>63.88154269972452</v>
       </c>
       <c r="H7" t="n">
-        <v>49.62302760691835</v>
+        <v>48.70362952358956</v>
       </c>
       <c r="I7" t="n">
-        <v>69.5326356118474</v>
+        <v>56.3465124791451</v>
       </c>
       <c r="J7" t="n">
-        <v>84.3507322696269</v>
+        <v>166.6851728819421</v>
       </c>
       <c r="K7" t="n">
-        <v>83.4127883563919</v>
+        <v>129.7001390034643</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B8" t="n">
-        <v>13.41143250688705</v>
+        <v>13.00972602739725</v>
       </c>
       <c r="C8" t="n">
-        <v>8.863500811751351</v>
+        <v>8.10070556457481</v>
       </c>
       <c r="D8" t="n">
-        <v>17.50350478950913</v>
+        <v>15.7978407119723</v>
       </c>
       <c r="E8" t="n">
-        <v>35.16499121287898</v>
+        <v>17.90070642622662</v>
       </c>
       <c r="F8" t="n">
-        <v>20.33212846153973</v>
+        <v>11.05306661371145</v>
       </c>
       <c r="G8" t="n">
-        <v>63.88154269972452</v>
+        <v>65.03561643835616</v>
       </c>
       <c r="H8" t="n">
-        <v>48.70362952367324</v>
+        <v>46.83004032803989</v>
       </c>
       <c r="I8" t="n">
-        <v>56.34651247925107</v>
+        <v>71.77303859867193</v>
       </c>
       <c r="J8" t="n">
-        <v>166.6851728820838</v>
+        <v>85.31179535741241</v>
       </c>
       <c r="K8" t="n">
-        <v>129.7001390038738</v>
+        <v>60.26847977177678</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B9" t="n">
-        <v>13.00972602739725</v>
+        <v>13.66452054794521</v>
       </c>
       <c r="C9" t="n">
-        <v>8.100705564575012</v>
+        <v>8.872785617384165</v>
       </c>
       <c r="D9" t="n">
-        <v>15.79784071197263</v>
+        <v>17.92580044738431</v>
       </c>
       <c r="E9" t="n">
-        <v>17.90070642622695</v>
+        <v>18.61413811332855</v>
       </c>
       <c r="F9" t="n">
-        <v>11.05306661371239</v>
+        <v>9.761989854496864</v>
       </c>
       <c r="G9" t="n">
-        <v>65.03561643835616</v>
+        <v>62.36986301369863</v>
       </c>
       <c r="H9" t="n">
-        <v>46.83004032804081</v>
+        <v>42.353667114756</v>
       </c>
       <c r="I9" t="n">
-        <v>71.77303859867308</v>
+        <v>56.60190152306233</v>
       </c>
       <c r="J9" t="n">
-        <v>85.31179535741396</v>
+        <v>82.70991081910232</v>
       </c>
       <c r="K9" t="n">
-        <v>60.26847977178124</v>
+        <v>70.18770086708453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B10" t="n">
-        <v>13.66452054794521</v>
+        <v>13.3441256830601</v>
       </c>
       <c r="C10" t="n">
-        <v>8.872785617384167</v>
+        <v>8.282118523267961</v>
       </c>
       <c r="D10" t="n">
-        <v>17.92580044738432</v>
+        <v>16.4272065983229</v>
       </c>
       <c r="E10" t="n">
-        <v>18.61413811332855</v>
+        <v>18.45232758818835</v>
       </c>
       <c r="F10" t="n">
-        <v>9.761989854496875</v>
+        <v>10.7930651071141</v>
       </c>
       <c r="G10" t="n">
-        <v>62.36986301369863</v>
+        <v>64.1256830601093</v>
       </c>
       <c r="H10" t="n">
-        <v>42.35366711475601</v>
+        <v>46.56432601225006</v>
       </c>
       <c r="I10" t="n">
-        <v>56.60190152306235</v>
+        <v>66.56705386289079</v>
       </c>
       <c r="J10" t="n">
-        <v>82.70991081910232</v>
+        <v>82.48597729151199</v>
       </c>
       <c r="K10" t="n">
-        <v>70.18770086708457</v>
+        <v>63.45856196594657</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B11" t="n">
-        <v>13.3441256830601</v>
+        <v>13.796301369863</v>
       </c>
       <c r="C11" t="n">
-        <v>8.282118523267961</v>
+        <v>8.888134650258534</v>
       </c>
       <c r="D11" t="n">
-        <v>16.4272065983229</v>
+        <v>16.3019473252563</v>
       </c>
       <c r="E11" t="n">
-        <v>18.45232758818835</v>
+        <v>18.79078616943683</v>
       </c>
       <c r="F11" t="n">
-        <v>10.7930651071141</v>
+        <v>11.71133766420777</v>
       </c>
       <c r="G11" t="n">
-        <v>64.1256830601093</v>
+        <v>62.38904109589041</v>
       </c>
       <c r="H11" t="n">
-        <v>46.56432601225006</v>
+        <v>50.63960362235834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.56705386289079</v>
+        <v>66.96227531717463</v>
       </c>
       <c r="J11" t="n">
-        <v>82.48597729151199</v>
+        <v>81.12484757925556</v>
       </c>
       <c r="K11" t="n">
-        <v>63.45856196594657</v>
+        <v>53.43976697789072</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B12" t="n">
-        <v>13.796301369863</v>
+        <v>13.24698630136986</v>
       </c>
       <c r="C12" t="n">
-        <v>8.888134650258534</v>
+        <v>8.704868162780649</v>
       </c>
       <c r="D12" t="n">
-        <v>16.3019473252563</v>
+        <v>16.43793348709073</v>
       </c>
       <c r="E12" t="n">
-        <v>18.79078616943683</v>
+        <v>18.72924767575475</v>
       </c>
       <c r="F12" t="n">
-        <v>11.71133766420777</v>
+        <v>9.657188452871823</v>
       </c>
       <c r="G12" t="n">
-        <v>62.38904109589041</v>
+        <v>62.92054794520548</v>
       </c>
       <c r="H12" t="n">
-        <v>50.63960362235834</v>
+        <v>46.79599559580397</v>
       </c>
       <c r="I12" t="n">
-        <v>66.96227531717463</v>
+        <v>60.06551950897995</v>
       </c>
       <c r="J12" t="n">
-        <v>81.12484757925556</v>
+        <v>81.13179182151364</v>
       </c>
       <c r="K12" t="n">
-        <v>53.43976697789072</v>
+        <v>66.0482583367162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B13" t="n">
-        <v>13.24698630136986</v>
+        <v>13.3078729281768</v>
       </c>
       <c r="C13" t="n">
-        <v>8.704868162780649</v>
+        <v>6.845609646253119</v>
       </c>
       <c r="D13" t="n">
-        <v>16.43793348709073</v>
+        <v>17.43008718117683</v>
       </c>
       <c r="E13" t="n">
-        <v>18.72924767575475</v>
+        <v>18.92586138777995</v>
       </c>
       <c r="F13" t="n">
-        <v>9.657188452871823</v>
+        <v>10.42199088149294</v>
       </c>
       <c r="G13" t="n">
-        <v>62.92054794520548</v>
+        <v>61.88397790055249</v>
       </c>
       <c r="H13" t="n">
-        <v>46.79599559580397</v>
+        <v>51.89773328439782</v>
       </c>
       <c r="I13" t="n">
-        <v>60.06551950897995</v>
+        <v>54.07764307152726</v>
       </c>
       <c r="J13" t="n">
-        <v>81.13179182151364</v>
+        <v>79.3275194763208</v>
       </c>
       <c r="K13" t="n">
-        <v>66.0482583367162</v>
+        <v>64.78705908243501</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B14" t="n">
-        <v>13.3078729281768</v>
+        <v>13.6678961748634</v>
       </c>
       <c r="C14" t="n">
-        <v>6.845609646253119</v>
+        <v>10.00324845765113</v>
       </c>
       <c r="D14" t="n">
-        <v>17.43008718117683</v>
+        <v>16.67175919979316</v>
       </c>
       <c r="E14" t="n">
-        <v>18.92586138777995</v>
+        <v>17.69538979769326</v>
       </c>
       <c r="F14" t="n">
-        <v>10.42199088149294</v>
+        <v>10.87686946610319</v>
       </c>
       <c r="G14" t="n">
-        <v>61.88397790055249</v>
+        <v>59.72950819672131</v>
       </c>
       <c r="H14" t="n">
-        <v>51.89773328439782</v>
+        <v>38.4604146514769</v>
       </c>
       <c r="I14" t="n">
-        <v>54.07764307152726</v>
+        <v>65.72612794584096</v>
       </c>
       <c r="J14" t="n">
-        <v>79.3275194763208</v>
+        <v>80.25355999430784</v>
       </c>
       <c r="K14" t="n">
-        <v>64.78705908243501</v>
+        <v>57.03029412046125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B15" t="n">
-        <v>13.6678961748634</v>
+        <v>13.49013698630138</v>
       </c>
       <c r="C15" t="n">
-        <v>10.00324845765113</v>
+        <v>8.811147205085016</v>
       </c>
       <c r="D15" t="n">
-        <v>16.67175919979316</v>
+        <v>16.55298636483289</v>
       </c>
       <c r="E15" t="n">
-        <v>17.69538979769326</v>
+        <v>18.25212380214884</v>
       </c>
       <c r="F15" t="n">
-        <v>10.87686946610319</v>
+        <v>10.8763790159359</v>
       </c>
       <c r="G15" t="n">
-        <v>59.72950819672131</v>
+        <v>63.59452054794521</v>
       </c>
       <c r="H15" t="n">
-        <v>38.4604146514769</v>
+        <v>46.48289349612752</v>
       </c>
       <c r="I15" t="n">
-        <v>65.72612794584096</v>
+        <v>66.38160580160265</v>
       </c>
       <c r="J15" t="n">
-        <v>80.25355999430784</v>
+        <v>84.32884304341638</v>
       </c>
       <c r="K15" t="n">
-        <v>57.03029412046125</v>
+        <v>59.46772058826588</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B16" t="n">
-        <v>13.49013698630138</v>
+        <v>13.60849315068494</v>
       </c>
       <c r="C16" t="n">
-        <v>8.811147205085016</v>
+        <v>9.106234968945387</v>
       </c>
       <c r="D16" t="n">
-        <v>16.55298636483289</v>
+        <v>17.8264064435696</v>
       </c>
       <c r="E16" t="n">
-        <v>18.25212380214884</v>
+        <v>17.70926221524075</v>
       </c>
       <c r="F16" t="n">
-        <v>10.8763790159359</v>
+        <v>10.33235194582539</v>
       </c>
       <c r="G16" t="n">
-        <v>63.59452054794521</v>
+        <v>60.9972602739726</v>
       </c>
       <c r="H16" t="n">
-        <v>46.48289349612752</v>
+        <v>44.11647659440142</v>
       </c>
       <c r="I16" t="n">
-        <v>66.38160580160265</v>
+        <v>55.86133632749014</v>
       </c>
       <c r="J16" t="n">
-        <v>84.32884304341638</v>
+        <v>83.43835698960235</v>
       </c>
       <c r="K16" t="n">
-        <v>59.46772058826588</v>
+        <v>62.93986652813332</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B17" t="n">
-        <v>13.60849315068494</v>
+        <v>13.7335616438356</v>
       </c>
       <c r="C17" t="n">
-        <v>9.106234968945387</v>
+        <v>9.404513721877167</v>
       </c>
       <c r="D17" t="n">
-        <v>17.8264064435696</v>
+        <v>17.19919127959966</v>
       </c>
       <c r="E17" t="n">
-        <v>17.70926221524075</v>
+        <v>17.61640502407871</v>
       </c>
       <c r="F17" t="n">
-        <v>10.33235194582539</v>
+        <v>11.25524295593288</v>
       </c>
       <c r="G17" t="n">
-        <v>60.9972602739726</v>
+        <v>61.53150684931507</v>
       </c>
       <c r="H17" t="n">
-        <v>44.11647659440142</v>
+        <v>46.41240529549335</v>
       </c>
       <c r="I17" t="n">
-        <v>55.86133632749014</v>
+        <v>59.72375094865374</v>
       </c>
       <c r="J17" t="n">
-        <v>83.43835698960235</v>
+        <v>84.33085170640872</v>
       </c>
       <c r="K17" t="n">
-        <v>62.93986652813332</v>
+        <v>57.98847681008841</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B18" t="n">
-        <v>13.7335616438356</v>
+        <v>14.14672131147541</v>
       </c>
       <c r="C18" t="n">
-        <v>9.404513721877167</v>
+        <v>9.487412238701948</v>
       </c>
       <c r="D18" t="n">
-        <v>17.19919127959966</v>
+        <v>17.47251858549011</v>
       </c>
       <c r="E18" t="n">
-        <v>17.61640502407871</v>
+        <v>18.68822179373998</v>
       </c>
       <c r="F18" t="n">
-        <v>11.25524295593288</v>
+        <v>11.52723090169492</v>
       </c>
       <c r="G18" t="n">
-        <v>61.53150684931507</v>
+        <v>63.2103825136612</v>
       </c>
       <c r="H18" t="n">
-        <v>46.41240529549335</v>
+        <v>45.97156489335708</v>
       </c>
       <c r="I18" t="n">
-        <v>59.72375094865374</v>
+        <v>58.92004121921598</v>
       </c>
       <c r="J18" t="n">
-        <v>84.33085170640872</v>
+        <v>81.2535962142001</v>
       </c>
       <c r="K18" t="n">
-        <v>57.98847681008841</v>
+        <v>69.16291822619661</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B19" t="n">
-        <v>14.14672131147541</v>
+        <v>13.15109890109891</v>
       </c>
       <c r="C19" t="n">
-        <v>9.487412238701948</v>
+        <v>8.624304580430019</v>
       </c>
       <c r="D19" t="n">
-        <v>17.47251858549011</v>
+        <v>16.63651119324714</v>
       </c>
       <c r="E19" t="n">
-        <v>18.68822179373998</v>
+        <v>18.13888155817296</v>
       </c>
       <c r="F19" t="n">
-        <v>11.52723090169492</v>
+        <v>9.819861205453202</v>
       </c>
       <c r="G19" t="n">
-        <v>63.2103825136612</v>
+        <v>63.72252747252747</v>
       </c>
       <c r="H19" t="n">
-        <v>45.97156489335708</v>
+        <v>45.48857294325952</v>
       </c>
       <c r="I19" t="n">
-        <v>58.92004121921598</v>
+        <v>61.12000045295841</v>
       </c>
       <c r="J19" t="n">
-        <v>81.2535962142001</v>
+        <v>84.04674281554065</v>
       </c>
       <c r="K19" t="n">
-        <v>69.16291822619661</v>
+        <v>66.80611867637171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B20" t="n">
-        <v>13.15109890109891</v>
+        <v>12.98254847645429</v>
       </c>
       <c r="C20" t="n">
-        <v>8.624304580430019</v>
+        <v>8.270825606449222</v>
       </c>
       <c r="D20" t="n">
-        <v>16.63651119324714</v>
+        <v>15.27151679103608</v>
       </c>
       <c r="E20" t="n">
-        <v>18.13888155817296</v>
+        <v>17.89931327593453</v>
       </c>
       <c r="F20" t="n">
-        <v>9.819861205453202</v>
+        <v>11.1746724044071</v>
       </c>
       <c r="G20" t="n">
-        <v>63.72252747252747</v>
+        <v>67.32409972299169</v>
       </c>
       <c r="H20" t="n">
-        <v>45.48857294325952</v>
+        <v>53.78320636603621</v>
       </c>
       <c r="I20" t="n">
-        <v>61.12000045295841</v>
+        <v>71.31244444947731</v>
       </c>
       <c r="J20" t="n">
-        <v>84.04674281554065</v>
+        <v>83.79827800916338</v>
       </c>
       <c r="K20" t="n">
-        <v>66.80611867637171</v>
+        <v>63.53050128996056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B21" t="n">
-        <v>12.98254847645429</v>
+        <v>13.61880222841226</v>
       </c>
       <c r="C21" t="n">
-        <v>8.270825606449222</v>
+        <v>9.21877332142078</v>
       </c>
       <c r="D21" t="n">
-        <v>15.27151679103608</v>
+        <v>16.9696835199004</v>
       </c>
       <c r="E21" t="n">
-        <v>17.89931327593453</v>
+        <v>18.30280127276331</v>
       </c>
       <c r="F21" t="n">
-        <v>11.1746724044071</v>
+        <v>10.60521618026821</v>
       </c>
       <c r="G21" t="n">
-        <v>67.32409972299169</v>
+        <v>64.66573816155989</v>
       </c>
       <c r="H21" t="n">
-        <v>53.78320636603621</v>
+        <v>50.26722703782063</v>
       </c>
       <c r="I21" t="n">
-        <v>71.31244444947731</v>
+        <v>62.9145827161053</v>
       </c>
       <c r="J21" t="n">
-        <v>83.79827800916338</v>
+        <v>86.03144132594565</v>
       </c>
       <c r="K21" t="n">
-        <v>63.53050128996056</v>
+        <v>62.57725825593364</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B22" t="n">
-        <v>13.61880222841226</v>
+        <v>12.79178082191781</v>
       </c>
       <c r="C22" t="n">
-        <v>9.21877332142078</v>
+        <v>7.501305201334297</v>
       </c>
       <c r="D22" t="n">
-        <v>16.9696835199004</v>
+        <v>17.29521870577666</v>
       </c>
       <c r="E22" t="n">
-        <v>18.30280127276331</v>
+        <v>17.86796523122568</v>
       </c>
       <c r="F22" t="n">
-        <v>10.60521618026821</v>
+        <v>9.141904523698566</v>
       </c>
       <c r="G22" t="n">
-        <v>64.66573816155989</v>
+        <v>65.50410958904109</v>
       </c>
       <c r="H22" t="n">
-        <v>50.26722703782063</v>
+        <v>57.06887062678924</v>
       </c>
       <c r="I22" t="n">
-        <v>62.9145827161053</v>
+        <v>57.99905091906784</v>
       </c>
       <c r="J22" t="n">
-        <v>86.03144132594565</v>
+        <v>83.20686349267332</v>
       </c>
       <c r="K22" t="n">
-        <v>62.57725825593364</v>
+        <v>66.33236150278189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B23" t="n">
-        <v>12.79178082191781</v>
+        <v>13.32038567493114</v>
       </c>
       <c r="C23" t="n">
-        <v>7.501305201334297</v>
+        <v>8.032236724459271</v>
       </c>
       <c r="D23" t="n">
-        <v>17.29521870577666</v>
+        <v>16.76828020784196</v>
       </c>
       <c r="E23" t="n">
-        <v>17.86796523122568</v>
+        <v>18.20019742012335</v>
       </c>
       <c r="F23" t="n">
-        <v>9.141904523698566</v>
+        <v>10.85697722308368</v>
       </c>
       <c r="G23" t="n">
-        <v>65.50410958904109</v>
+        <v>65.99449035812673</v>
       </c>
       <c r="H23" t="n">
-        <v>57.06887062678924</v>
+        <v>55.00076522918655</v>
       </c>
       <c r="I23" t="n">
-        <v>57.99905091906784</v>
+        <v>60.18887834354521</v>
       </c>
       <c r="J23" t="n">
-        <v>83.20686349267332</v>
+        <v>85.29897652189752</v>
       </c>
       <c r="K23" t="n">
-        <v>66.33236150278189</v>
+        <v>66.21013436416068</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B24" t="n">
-        <v>13.32038567493114</v>
+        <v>13.81873278236914</v>
       </c>
       <c r="C24" t="n">
-        <v>8.032236724459271</v>
+        <v>9.11758040804955</v>
       </c>
       <c r="D24" t="n">
-        <v>16.76828020784196</v>
+        <v>17.70789318909716</v>
       </c>
       <c r="E24" t="n">
-        <v>18.20019742012335</v>
+        <v>18.50222441577915</v>
       </c>
       <c r="F24" t="n">
-        <v>10.85697722308368</v>
+        <v>10.57453236112048</v>
       </c>
       <c r="G24" t="n">
-        <v>65.99449035812673</v>
+        <v>61.86225895316804</v>
       </c>
       <c r="H24" t="n">
-        <v>55.00076522918655</v>
+        <v>47.95556405810207</v>
       </c>
       <c r="I24" t="n">
-        <v>60.18887834354521</v>
+        <v>61.0020755861928</v>
       </c>
       <c r="J24" t="n">
-        <v>85.29897652189752</v>
+        <v>81.92554418357663</v>
       </c>
       <c r="K24" t="n">
-        <v>66.21013436416068</v>
+        <v>59.58924059091479</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B25" t="n">
-        <v>13.81873278236914</v>
+        <v>13.65772471910111</v>
       </c>
       <c r="C25" t="n">
-        <v>9.11758040804955</v>
+        <v>8.82604022930393</v>
       </c>
       <c r="D25" t="n">
-        <v>17.70789318909716</v>
+        <v>17.17064325765663</v>
       </c>
       <c r="E25" t="n">
-        <v>18.50222441577915</v>
+        <v>17.90002586529976</v>
       </c>
       <c r="F25" t="n">
-        <v>10.57453236112048</v>
+        <v>11.5140058501222</v>
       </c>
       <c r="G25" t="n">
-        <v>61.86225895316804</v>
+        <v>63.20224719101124</v>
       </c>
       <c r="H25" t="n">
-        <v>47.95556405810207</v>
+        <v>44.01073667481013</v>
       </c>
       <c r="I25" t="n">
-        <v>61.0020755861928</v>
+        <v>62.36668972873548</v>
       </c>
       <c r="J25" t="n">
-        <v>81.92554418357663</v>
+        <v>84.3247156300416</v>
       </c>
       <c r="K25" t="n">
-        <v>59.58924059091479</v>
+        <v>65.58889275374631</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B26" t="n">
-        <v>13.65772471910111</v>
+        <v>13.68337912087913</v>
       </c>
       <c r="C26" t="n">
-        <v>8.82604022930393</v>
+        <v>9.185844891436714</v>
       </c>
       <c r="D26" t="n">
-        <v>17.17064325765663</v>
+        <v>16.76967381397397</v>
       </c>
       <c r="E26" t="n">
-        <v>17.90002586529976</v>
+        <v>18.04293506375325</v>
       </c>
       <c r="F26" t="n">
-        <v>11.5140058501222</v>
+        <v>11.30667397663176</v>
       </c>
       <c r="G26" t="n">
-        <v>63.20224719101124</v>
+        <v>60.93131868131868</v>
       </c>
       <c r="H26" t="n">
-        <v>44.01073667481013</v>
+        <v>46.14456374083123</v>
       </c>
       <c r="I26" t="n">
-        <v>62.36668972873548</v>
+        <v>59.33740766365262</v>
       </c>
       <c r="J26" t="n">
-        <v>84.3247156300416</v>
+        <v>82.00352951771785</v>
       </c>
       <c r="K26" t="n">
-        <v>65.58889275374631</v>
+        <v>58.66944448645376</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B27" t="n">
-        <v>13.68337912087913</v>
+        <v>13.07257617728531</v>
       </c>
       <c r="C27" t="n">
-        <v>9.185844891436714</v>
+        <v>7.955953832127077</v>
       </c>
       <c r="D27" t="n">
-        <v>16.76967381397397</v>
+        <v>16.54142498696675</v>
       </c>
       <c r="E27" t="n">
-        <v>18.04293506375325</v>
+        <v>17.49769927848614</v>
       </c>
       <c r="F27" t="n">
-        <v>11.30667397663176</v>
+        <v>10.87118526640702</v>
       </c>
       <c r="G27" t="n">
-        <v>60.93131868131868</v>
+        <v>60.02770083102493</v>
       </c>
       <c r="H27" t="n">
-        <v>46.14456374083123</v>
+        <v>46.92382848600924</v>
       </c>
       <c r="I27" t="n">
-        <v>59.33740766365262</v>
+        <v>58.8498616226775</v>
       </c>
       <c r="J27" t="n">
-        <v>82.00352951771785</v>
+        <v>81.4778169946413</v>
       </c>
       <c r="K27" t="n">
-        <v>58.66944448645376</v>
+        <v>55.6074382720717</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B28" t="n">
-        <v>13.07257617728531</v>
+        <v>14.10595567867037</v>
       </c>
       <c r="C28" t="n">
-        <v>7.955953832127077</v>
+        <v>9.094510598134747</v>
       </c>
       <c r="D28" t="n">
-        <v>16.54142498696675</v>
+        <v>17.73287280205458</v>
       </c>
       <c r="E28" t="n">
-        <v>17.49769927848614</v>
+        <v>18.57441888087207</v>
       </c>
       <c r="F28" t="n">
-        <v>10.87118526640702</v>
+        <v>11.56912428073786</v>
       </c>
       <c r="G28" t="n">
-        <v>60.02770083102493</v>
+        <v>63.6786703601108</v>
       </c>
       <c r="H28" t="n">
-        <v>46.92382848600924</v>
+        <v>44.47693142762233</v>
       </c>
       <c r="I28" t="n">
-        <v>58.8498616226775</v>
+        <v>63.89944902882063</v>
       </c>
       <c r="J28" t="n">
-        <v>81.4778169946413</v>
+        <v>83.8719757443849</v>
       </c>
       <c r="K28" t="n">
-        <v>55.6074382720717</v>
+        <v>65.16230486968969</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B29" t="n">
-        <v>14.10595567867037</v>
+        <v>14.37791666666667</v>
       </c>
       <c r="C29" t="n">
-        <v>9.094510598134747</v>
+        <v>11.16960124267567</v>
       </c>
       <c r="D29" t="n">
-        <v>17.73287280205458</v>
+        <v>18.0698096978006</v>
       </c>
       <c r="E29" t="n">
-        <v>18.57441888087207</v>
+        <v>17.96138243200969</v>
       </c>
       <c r="F29" t="n">
-        <v>11.56912428073786</v>
+        <v>10.94636400308503</v>
       </c>
       <c r="G29" t="n">
-        <v>63.6786703601108</v>
+        <v>62.07222222222222</v>
       </c>
       <c r="H29" t="n">
-        <v>44.47693142762233</v>
+        <v>36.24131383626542</v>
       </c>
       <c r="I29" t="n">
-        <v>63.89944902882063</v>
+        <v>62.13221610032023</v>
       </c>
       <c r="J29" t="n">
-        <v>83.8719757443849</v>
+        <v>85.09857750827095</v>
       </c>
       <c r="K29" t="n">
-        <v>65.16230486968969</v>
+        <v>67.33145389966691</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B30" t="n">
-        <v>14.37791666666667</v>
+        <v>13.25602739726027</v>
       </c>
       <c r="C30" t="n">
-        <v>11.16960124267567</v>
+        <v>8.199662236029731</v>
       </c>
       <c r="D30" t="n">
-        <v>18.0698096978006</v>
+        <v>16.45076713953627</v>
       </c>
       <c r="E30" t="n">
-        <v>17.96138243200969</v>
+        <v>18.13762372208706</v>
       </c>
       <c r="F30" t="n">
-        <v>10.94636400308503</v>
+        <v>10.79289526090309</v>
       </c>
       <c r="G30" t="n">
-        <v>62.07222222222222</v>
+        <v>64.41369863013699</v>
       </c>
       <c r="H30" t="n">
-        <v>36.24131383626542</v>
+        <v>44.69157015373628</v>
       </c>
       <c r="I30" t="n">
-        <v>62.13221610032023</v>
+        <v>67.37507929780571</v>
       </c>
       <c r="J30" t="n">
-        <v>85.09857750827095</v>
+        <v>83.71846279900295</v>
       </c>
       <c r="K30" t="n">
-        <v>67.33145389966691</v>
+        <v>64.19925493369203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B31" t="n">
-        <v>13.25602739726027</v>
+        <v>13.6526170798898</v>
       </c>
       <c r="C31" t="n">
-        <v>8.199662236029731</v>
+        <v>9.34550182287674</v>
       </c>
       <c r="D31" t="n">
-        <v>16.45076713953627</v>
+        <v>16.35055788065424</v>
       </c>
       <c r="E31" t="n">
-        <v>18.13762372208706</v>
+        <v>18.39052333760535</v>
       </c>
       <c r="F31" t="n">
-        <v>10.79289526090309</v>
+        <v>11.04666190500982</v>
       </c>
       <c r="G31" t="n">
-        <v>64.41369863013699</v>
+        <v>64.0495867768595</v>
       </c>
       <c r="H31" t="n">
-        <v>44.69157015373628</v>
+        <v>42.7156356197049</v>
       </c>
       <c r="I31" t="n">
-        <v>67.37507929780571</v>
+        <v>65.3667591131627</v>
       </c>
       <c r="J31" t="n">
-        <v>83.71846279900295</v>
+        <v>85.71119189889014</v>
       </c>
       <c r="K31" t="n">
-        <v>64.19925493369203</v>
+        <v>64.78477451014882</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B32" t="n">
-        <v>13.6526170798898</v>
+        <v>13.65526315789474</v>
       </c>
       <c r="C32" t="n">
-        <v>9.34550182287674</v>
+        <v>9.624668559807608</v>
       </c>
       <c r="D32" t="n">
-        <v>16.35055788065424</v>
+        <v>16.91099514154564</v>
       </c>
       <c r="E32" t="n">
-        <v>18.39052333760535</v>
+        <v>17.18211692597339</v>
       </c>
       <c r="F32" t="n">
-        <v>11.04666190500982</v>
+        <v>11.45930397697813</v>
       </c>
       <c r="G32" t="n">
-        <v>64.0495867768595</v>
+        <v>63.03601108033241</v>
       </c>
       <c r="H32" t="n">
-        <v>42.7156356197049</v>
+        <v>48.2327599507832</v>
       </c>
       <c r="I32" t="n">
-        <v>65.3667591131627</v>
+        <v>63.08095339684794</v>
       </c>
       <c r="J32" t="n">
-        <v>85.71119189889014</v>
+        <v>85.34123546554322</v>
       </c>
       <c r="K32" t="n">
-        <v>64.78477451014882</v>
+        <v>58.25038213747416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B33" t="n">
-        <v>13.65526315789474</v>
+        <v>14.22561643835616</v>
       </c>
       <c r="C33" t="n">
-        <v>9.624668559807608</v>
+        <v>9.204162983997863</v>
       </c>
       <c r="D33" t="n">
-        <v>16.91099514154564</v>
+        <v>17.3220988477093</v>
       </c>
       <c r="E33" t="n">
-        <v>17.18211692597339</v>
+        <v>19.05034909702145</v>
       </c>
       <c r="F33" t="n">
-        <v>11.45930397697813</v>
+        <v>11.85010113018455</v>
       </c>
       <c r="G33" t="n">
-        <v>63.03601108033241</v>
+        <v>61.07671232876712</v>
       </c>
       <c r="H33" t="n">
-        <v>48.2327599507832</v>
+        <v>45.3248084438976</v>
       </c>
       <c r="I33" t="n">
-        <v>63.08095339684794</v>
+        <v>60.36352696040492</v>
       </c>
       <c r="J33" t="n">
-        <v>85.34123546554322</v>
+        <v>81.90588299419069</v>
       </c>
       <c r="K33" t="n">
-        <v>58.25038213747416</v>
+        <v>59.13315632758124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B34" t="n">
-        <v>14.22561643835616</v>
+        <v>13.74917808219177</v>
       </c>
       <c r="C34" t="n">
-        <v>9.204162983997863</v>
+        <v>10.35393514426664</v>
       </c>
       <c r="D34" t="n">
-        <v>17.3220988477093</v>
+        <v>16.4826604268979</v>
       </c>
       <c r="E34" t="n">
-        <v>19.05034909702145</v>
+        <v>18.1614168380111</v>
       </c>
       <c r="F34" t="n">
-        <v>11.85010113018455</v>
+        <v>10.57880544706722</v>
       </c>
       <c r="G34" t="n">
-        <v>61.07671232876712</v>
+        <v>62.66301369863014</v>
       </c>
       <c r="H34" t="n">
-        <v>45.3248084438976</v>
+        <v>42.04805342715441</v>
       </c>
       <c r="I34" t="n">
-        <v>60.36352696040492</v>
+        <v>66.28970908747698</v>
       </c>
       <c r="J34" t="n">
-        <v>81.90588299419069</v>
+        <v>83.06419438037163</v>
       </c>
       <c r="K34" t="n">
-        <v>59.13315632758124</v>
+        <v>61.52318648182154</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B35" t="n">
-        <v>13.74917808219177</v>
+        <v>14.57808219178083</v>
       </c>
       <c r="C35" t="n">
-        <v>10.35393514426664</v>
+        <v>9.472265946047408</v>
       </c>
       <c r="D35" t="n">
-        <v>16.4826604268979</v>
+        <v>18.42728198271316</v>
       </c>
       <c r="E35" t="n">
-        <v>18.1614168380111</v>
+        <v>19.14360235693491</v>
       </c>
       <c r="F35" t="n">
-        <v>10.57880544706722</v>
+        <v>11.80411745051159</v>
       </c>
       <c r="G35" t="n">
-        <v>62.66301369863014</v>
+        <v>59.02739726027397</v>
       </c>
       <c r="H35" t="n">
-        <v>42.04805342715441</v>
+        <v>49.53386726030172</v>
       </c>
       <c r="I35" t="n">
-        <v>66.28970908747698</v>
+        <v>50.78340339656568</v>
       </c>
       <c r="J35" t="n">
-        <v>83.06419438037163</v>
+        <v>79.77243689543882</v>
       </c>
       <c r="K35" t="n">
-        <v>61.52318648182154</v>
+        <v>58.47307811393284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B36" t="n">
-        <v>14.57808219178083</v>
+        <v>15.09214876033059</v>
       </c>
       <c r="C36" t="n">
-        <v>9.472265946047408</v>
+        <v>11.98524739940053</v>
       </c>
       <c r="D36" t="n">
-        <v>18.42728198271316</v>
+        <v>17.9596404613485</v>
       </c>
       <c r="E36" t="n">
-        <v>19.14360235693491</v>
+        <v>19.34326224841038</v>
       </c>
       <c r="F36" t="n">
-        <v>11.80411745051159</v>
+        <v>11.77613171141861</v>
       </c>
       <c r="G36" t="n">
-        <v>59.02739726027397</v>
+        <v>56.66942148760331</v>
       </c>
       <c r="H36" t="n">
-        <v>49.53386726030172</v>
+        <v>38.95037630289224</v>
       </c>
       <c r="I36" t="n">
-        <v>50.78340339656568</v>
+        <v>56.10750992743478</v>
       </c>
       <c r="J36" t="n">
-        <v>79.77243689543882</v>
+        <v>76.01969374328266</v>
       </c>
       <c r="K36" t="n">
-        <v>58.47307811393284</v>
+        <v>58.22253345776014</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B37" t="n">
-        <v>15.09214876033059</v>
+        <v>13.70150684931508</v>
       </c>
       <c r="C37" t="n">
-        <v>11.98524739940053</v>
+        <v>9.433169415548891</v>
       </c>
       <c r="D37" t="n">
-        <v>17.9596404613485</v>
+        <v>16.86329275232252</v>
       </c>
       <c r="E37" t="n">
-        <v>19.34326224841038</v>
+        <v>18.39992676356968</v>
       </c>
       <c r="F37" t="n">
-        <v>11.77613171141861</v>
+        <v>10.71495795338498</v>
       </c>
       <c r="G37" t="n">
-        <v>56.66942148760331</v>
+        <v>64.41917808219178</v>
       </c>
       <c r="H37" t="n">
-        <v>38.95037630289224</v>
+        <v>46.05500418114325</v>
       </c>
       <c r="I37" t="n">
-        <v>56.10750992743478</v>
+        <v>64.00118142777401</v>
       </c>
       <c r="J37" t="n">
-        <v>76.01969374328266</v>
+        <v>81.89151841025307</v>
       </c>
       <c r="K37" t="n">
-        <v>58.22253345776014</v>
+        <v>67.81763623323651</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B38" t="n">
-        <v>13.70150684931508</v>
+        <v>13.60464480874316</v>
       </c>
       <c r="C38" t="n">
-        <v>9.433169415548891</v>
+        <v>8.81519966390713</v>
       </c>
       <c r="D38" t="n">
-        <v>16.86329275232252</v>
+        <v>17.11717904123431</v>
       </c>
       <c r="E38" t="n">
-        <v>18.39992676356968</v>
+        <v>18.53423833438663</v>
       </c>
       <c r="F38" t="n">
-        <v>10.71495795338498</v>
+        <v>10.54037997775419</v>
       </c>
       <c r="G38" t="n">
-        <v>64.41917808219178</v>
+        <v>64.13934426229508</v>
       </c>
       <c r="H38" t="n">
-        <v>46.05500418114325</v>
+        <v>48.6819231228697</v>
       </c>
       <c r="I38" t="n">
-        <v>64.00118142777401</v>
+        <v>61.74726572997554</v>
       </c>
       <c r="J38" t="n">
-        <v>81.89151841025307</v>
+        <v>81.81403824358971</v>
       </c>
       <c r="K38" t="n">
-        <v>67.81763623323651</v>
+        <v>66.94366995905692</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B39" t="n">
-        <v>13.60464480874316</v>
+        <v>14.68643835616437</v>
       </c>
       <c r="C39" t="n">
-        <v>8.81519966390713</v>
+        <v>10.20572444071008</v>
       </c>
       <c r="D39" t="n">
-        <v>17.11717904123431</v>
+        <v>18.10788108836521</v>
       </c>
       <c r="E39" t="n">
-        <v>18.53423833438663</v>
+        <v>19.16450259059116</v>
       </c>
       <c r="F39" t="n">
-        <v>10.54037997775419</v>
+        <v>11.8053302171495</v>
       </c>
       <c r="G39" t="n">
-        <v>64.13934426229508</v>
+        <v>58.84931506849315</v>
       </c>
       <c r="H39" t="n">
-        <v>48.6819231228697</v>
+        <v>45.08535470136522</v>
       </c>
       <c r="I39" t="n">
-        <v>61.74726572997554</v>
+        <v>58.45876116186786</v>
       </c>
       <c r="J39" t="n">
-        <v>81.81403824358971</v>
+        <v>79.58493519829989</v>
       </c>
       <c r="K39" t="n">
-        <v>66.94366995905692</v>
+        <v>54.78199641259845</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B40" t="n">
-        <v>14.68643835616437</v>
+        <v>14.41260273972602</v>
       </c>
       <c r="C40" t="n">
-        <v>10.20572444071008</v>
+        <v>10.75006360489678</v>
       </c>
       <c r="D40" t="n">
-        <v>18.10788108836521</v>
+        <v>17.90008660536666</v>
       </c>
       <c r="E40" t="n">
-        <v>19.16450259059116</v>
+        <v>19.04961415859339</v>
       </c>
       <c r="F40" t="n">
-        <v>11.8053302171495</v>
+        <v>10.55331880670815</v>
       </c>
       <c r="G40" t="n">
-        <v>58.84931506849315</v>
+        <v>59.93972602739726</v>
       </c>
       <c r="H40" t="n">
-        <v>45.08535470136522</v>
+        <v>36.43428171890406</v>
       </c>
       <c r="I40" t="n">
-        <v>58.45876116186786</v>
+        <v>56.42262374903152</v>
       </c>
       <c r="J40" t="n">
-        <v>79.58493519829989</v>
+        <v>79.76722755650326</v>
       </c>
       <c r="K40" t="n">
-        <v>54.78199641259845</v>
+        <v>69.17154343926737</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B41" t="n">
-        <v>14.41260273972602</v>
+        <v>13.80686813186813</v>
       </c>
       <c r="C41" t="n">
-        <v>10.75006360489678</v>
+        <v>9.230337793313449</v>
       </c>
       <c r="D41" t="n">
-        <v>17.90008660536666</v>
+        <v>17.53956139126776</v>
       </c>
       <c r="E41" t="n">
-        <v>19.04961415859339</v>
+        <v>18.73206102346298</v>
       </c>
       <c r="F41" t="n">
-        <v>10.55331880670815</v>
+        <v>10.25003607398595</v>
       </c>
       <c r="G41" t="n">
-        <v>59.93972602739726</v>
+        <v>61.67857142857143</v>
       </c>
       <c r="H41" t="n">
-        <v>36.43428171890406</v>
+        <v>44.55544136762813</v>
       </c>
       <c r="I41" t="n">
-        <v>56.42262374903152</v>
+        <v>59.53211674449485</v>
       </c>
       <c r="J41" t="n">
-        <v>79.76722755650326</v>
+        <v>80.54094812561416</v>
       </c>
       <c r="K41" t="n">
-        <v>69.17154343926737</v>
+        <v>64.13229938520942</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B42" t="n">
-        <v>13.80686813186813</v>
+        <v>14.53387978142077</v>
       </c>
       <c r="C42" t="n">
-        <v>9.230337793313449</v>
+        <v>10.11352019553092</v>
       </c>
       <c r="D42" t="n">
-        <v>17.53956139126776</v>
+        <v>18.28834682847546</v>
       </c>
       <c r="E42" t="n">
-        <v>18.73206102346298</v>
+        <v>18.82426153286373</v>
       </c>
       <c r="F42" t="n">
-        <v>10.25003607398595</v>
+        <v>11.50815256602159</v>
       </c>
       <c r="G42" t="n">
-        <v>61.67857142857143</v>
+        <v>55.16393442622951</v>
       </c>
       <c r="H42" t="n">
-        <v>44.55544136762813</v>
+        <v>40.25885100403987</v>
       </c>
       <c r="I42" t="n">
-        <v>59.53211674449485</v>
+        <v>52.88496831587356</v>
       </c>
       <c r="J42" t="n">
-        <v>80.54094812561416</v>
+        <v>79.97327117527841</v>
       </c>
       <c r="K42" t="n">
-        <v>64.13229938520942</v>
+        <v>50.05578586288271</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B43" t="n">
-        <v>14.53387978142077</v>
+        <v>14.41287671232878</v>
       </c>
       <c r="C43" t="n">
-        <v>10.11352019553092</v>
+        <v>11.03570577995034</v>
       </c>
       <c r="D43" t="n">
-        <v>18.28834682847546</v>
+        <v>18.0394323827305</v>
       </c>
       <c r="E43" t="n">
-        <v>18.82426153286373</v>
+        <v>18.81439414709634</v>
       </c>
       <c r="F43" t="n">
-        <v>11.50815256602159</v>
+        <v>10.36639296267414</v>
       </c>
       <c r="G43" t="n">
-        <v>55.16393442622951</v>
+        <v>57.58356164383562</v>
       </c>
       <c r="H43" t="n">
-        <v>40.25885100403987</v>
+        <v>34.991765011156</v>
       </c>
       <c r="I43" t="n">
-        <v>52.88496831587356</v>
+        <v>56.47126338808652</v>
       </c>
       <c r="J43" t="n">
-        <v>79.97327117527841</v>
+        <v>79.81492686060085</v>
       </c>
       <c r="K43" t="n">
-        <v>50.05578586288271</v>
+        <v>60.97886723764003</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B44" t="n">
-        <v>14.41287671232878</v>
+        <v>14.91561643835616</v>
       </c>
       <c r="C44" t="n">
-        <v>11.03570577995034</v>
+        <v>10.71650784199945</v>
       </c>
       <c r="D44" t="n">
-        <v>18.0394323827305</v>
+        <v>18.9987849712388</v>
       </c>
       <c r="E44" t="n">
-        <v>18.81439414709634</v>
+        <v>19.04743906681627</v>
       </c>
       <c r="F44" t="n">
-        <v>10.36639296267414</v>
+        <v>11.48604774959429</v>
       </c>
       <c r="G44" t="n">
-        <v>57.58356164383562</v>
+        <v>55.66575342465753</v>
       </c>
       <c r="H44" t="n">
-        <v>34.991765011156</v>
+        <v>38.55546405567951</v>
       </c>
       <c r="I44" t="n">
-        <v>56.47126338808652</v>
+        <v>49.57660728997897</v>
       </c>
       <c r="J44" t="n">
-        <v>79.81492686060085</v>
+        <v>80.31320572674566</v>
       </c>
       <c r="K44" t="n">
-        <v>60.97886723764003</v>
+        <v>56.30411812214826</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B45" t="n">
-        <v>14.91561643835616</v>
+        <v>15.00357142857142</v>
       </c>
       <c r="C45" t="n">
-        <v>10.71650784199945</v>
+        <v>11.39063491957302</v>
       </c>
       <c r="D45" t="n">
-        <v>18.9987849712388</v>
+        <v>19.20273390078284</v>
       </c>
       <c r="E45" t="n">
-        <v>19.04743906681627</v>
+        <v>18.83149390290018</v>
       </c>
       <c r="F45" t="n">
-        <v>11.48604774959429</v>
+        <v>11.17213095379994</v>
       </c>
       <c r="G45" t="n">
-        <v>55.66575342465753</v>
+        <v>56.69230769230769</v>
       </c>
       <c r="H45" t="n">
-        <v>38.55546405567951</v>
+        <v>39.635454652311</v>
       </c>
       <c r="I45" t="n">
-        <v>49.57660728997897</v>
+        <v>50.25908359659317</v>
       </c>
       <c r="J45" t="n">
-        <v>80.31320572674566</v>
+        <v>77.89470875789941</v>
       </c>
       <c r="K45" t="n">
-        <v>56.30411812214826</v>
+        <v>60.79678389263205</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B46" t="n">
-        <v>15.00357142857142</v>
+        <v>14.46571038251367</v>
       </c>
       <c r="C46" t="n">
-        <v>11.39063491957302</v>
+        <v>9.760886098017281</v>
       </c>
       <c r="D46" t="n">
-        <v>19.20273390078284</v>
+        <v>17.6593707022064</v>
       </c>
       <c r="E46" t="n">
-        <v>18.83149390290018</v>
+        <v>19.02697275981413</v>
       </c>
       <c r="F46" t="n">
-        <v>11.17213095379994</v>
+        <v>12.05784924949783</v>
       </c>
       <c r="G46" t="n">
-        <v>56.69230769230769</v>
+        <v>64.15300546448087</v>
       </c>
       <c r="H46" t="n">
-        <v>39.635454652311</v>
+        <v>49.39159840277264</v>
       </c>
       <c r="I46" t="n">
-        <v>50.25908359659317</v>
+        <v>63.17867124831421</v>
       </c>
       <c r="J46" t="n">
-        <v>77.89470875789941</v>
+        <v>82.99885552997718</v>
       </c>
       <c r="K46" t="n">
-        <v>60.79678389263205</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B47" t="n">
-        <v>14.46571038251367</v>
-      </c>
-      <c r="C47" t="n">
-        <v>9.760886098017281</v>
-      </c>
-      <c r="D47" t="n">
-        <v>17.6593707022064</v>
-      </c>
-      <c r="E47" t="n">
-        <v>19.02697275981413</v>
-      </c>
-      <c r="F47" t="n">
-        <v>12.05784924949783</v>
-      </c>
-      <c r="G47" t="n">
-        <v>64.15300546448087</v>
-      </c>
-      <c r="H47" t="n">
-        <v>49.39159840277264</v>
-      </c>
-      <c r="I47" t="n">
-        <v>63.17867124831421</v>
-      </c>
-      <c r="J47" t="n">
-        <v>82.99885552997718</v>
-      </c>
-      <c r="K47" t="n">
         <v>63.35648678144166</v>
       </c>
     </row>

--- a/my_work/data1/YearMeanER56651_丽江.xlsx
+++ b/my_work/data1/YearMeanER56651_丽江.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,41 @@
           <t>s4_RH</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ETOmean</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>s1_ET0</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>s2_ET0</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>s3_ET0</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>s4_ET0</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ET0_PMT_G</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ET0_ET0_PMT_CF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -510,19 +545,40 @@
         <v>20.70108695652175</v>
       </c>
       <c r="G2" t="n">
-        <v>65.06593406593407</v>
+        <v>0.1787525661152035</v>
       </c>
       <c r="H2" t="n">
-        <v>97.92134831460675</v>
+        <v>1.100239868703446</v>
       </c>
       <c r="I2" t="n">
-        <v>146.6483516483516</v>
+        <v>1.611520347784084</v>
       </c>
       <c r="J2" t="n">
-        <v>174.9565217391304</v>
+        <v>1.901701323251418</v>
       </c>
       <c r="K2" t="n">
-        <v>127.2065217391304</v>
+        <v>1.382679584120983</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.508493919315774</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.100239868703446</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.611520347784084</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.901701323251418</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.382679584120983</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>506.778610366905</v>
+      </c>
+      <c r="R2" t="n">
+        <v>543.2071741539968</v>
       </c>
     </row>
     <row r="3">
@@ -545,19 +601,40 @@
         <v>9.697837901701329</v>
       </c>
       <c r="G3" t="n">
-        <v>65.16438356164383</v>
+        <v>0.1785325577031338</v>
       </c>
       <c r="H3" t="n">
-        <v>47.64357053682897</v>
+        <v>0.5174197826998399</v>
       </c>
       <c r="I3" t="n">
-        <v>62.74338847965221</v>
+        <v>0.6719733752382302</v>
       </c>
       <c r="J3" t="n">
-        <v>85.99952741020793</v>
+        <v>0.9143314864512347</v>
       </c>
       <c r="K3" t="n">
-        <v>69.80659262759924</v>
+        <v>0.7439015453194849</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.442870558531939</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5174197826998399</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6719733752382302</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9143314864512347</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.7439015453194849</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>511.6808036537565</v>
+      </c>
+      <c r="R3" t="n">
+        <v>549.5444695206072</v>
       </c>
     </row>
     <row r="4">
@@ -580,19 +657,40 @@
         <v>11.6059547598011</v>
       </c>
       <c r="G4" t="n">
-        <v>62.16666666666666</v>
+        <v>0.1698542805100182</v>
       </c>
       <c r="H4" t="n">
-        <v>47.52355572018494</v>
+        <v>0.5165459992492091</v>
       </c>
       <c r="I4" t="n">
-        <v>62.75542185142475</v>
+        <v>0.6821243778982294</v>
       </c>
       <c r="J4" t="n">
-        <v>82.59782095011096</v>
+        <v>0.8877498028693822</v>
       </c>
       <c r="K4" t="n">
-        <v>58.53050644160435</v>
+        <v>0.6280415762695321</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.672761556898464</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5165459992492091</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6821243778982294</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8877498028693822</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6280415762695321</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>533.6410865047542</v>
+      </c>
+      <c r="R4" t="n">
+        <v>578.0290851834457</v>
       </c>
     </row>
     <row r="5">
@@ -615,19 +713,40 @@
         <v>10.5163690734761</v>
       </c>
       <c r="G5" t="n">
-        <v>66.17534246575343</v>
+        <v>0.1813023081253519</v>
       </c>
       <c r="H5" t="n">
-        <v>51.0724839524465</v>
+        <v>0.5616687093826234</v>
       </c>
       <c r="I5" t="n">
-        <v>62.46983980056511</v>
+        <v>0.6789858862912568</v>
       </c>
       <c r="J5" t="n">
-        <v>83.26736761902295</v>
+        <v>0.8954262464322862</v>
       </c>
       <c r="K5" t="n">
-        <v>70.25576637436527</v>
+        <v>0.7568086060463457</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.442309736833985</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5616687093826234</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6789858862912568</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.8954262464322862</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.7568086060463457</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>521.8305087749326</v>
+      </c>
+      <c r="R5" t="n">
+        <v>560.0674486018675</v>
       </c>
     </row>
     <row r="6">
@@ -650,19 +769,40 @@
         <v>16.0058184536738</v>
       </c>
       <c r="G6" t="n">
-        <v>68.10580204778157</v>
+        <v>0.2324430104019849</v>
       </c>
       <c r="H6" t="n">
-        <v>49.62302759947163</v>
+        <v>0.5451310702110349</v>
       </c>
       <c r="I6" t="n">
-        <v>69.53263560220401</v>
+        <v>0.7566331343903263</v>
       </c>
       <c r="J6" t="n">
-        <v>84.35073225672851</v>
+        <v>0.907123750738</v>
       </c>
       <c r="K6" t="n">
-        <v>83.41278831871827</v>
+        <v>3.996892021515116</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.543404444375808</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5451310702110349</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.7566331343903263</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.907123750738</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.996892021515116</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>423.2838557462447</v>
+      </c>
+      <c r="R6" t="n">
+        <v>448.4050169709745</v>
       </c>
     </row>
     <row r="7">
@@ -685,19 +825,40 @@
         <v>20.33212846145298</v>
       </c>
       <c r="G7" t="n">
-        <v>63.88154269972452</v>
+        <v>0.1759822112940069</v>
       </c>
       <c r="H7" t="n">
-        <v>48.70362952358956</v>
+        <v>0.5410358706060108</v>
       </c>
       <c r="I7" t="n">
-        <v>56.3465124791451</v>
+        <v>0.6108871673873192</v>
       </c>
       <c r="J7" t="n">
-        <v>166.6851728819421</v>
+        <v>1.821628682979198</v>
       </c>
       <c r="K7" t="n">
-        <v>129.7001390034643</v>
+        <v>1.400401334123525</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.609925137926189</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5410358706060108</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6108871673873192</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.821628682979198</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.400401334123525</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>521.2778588567854</v>
+      </c>
+      <c r="R7" t="n">
+        <v>564.8607380339508</v>
       </c>
     </row>
     <row r="8">
@@ -720,19 +881,40 @@
         <v>11.05306661371145</v>
       </c>
       <c r="G8" t="n">
-        <v>65.03561643835616</v>
+        <v>0.1781797710639895</v>
       </c>
       <c r="H8" t="n">
-        <v>46.83004032803989</v>
+        <v>0.5143877822062476</v>
       </c>
       <c r="I8" t="n">
-        <v>71.77303859867193</v>
+        <v>0.7819841670290288</v>
       </c>
       <c r="J8" t="n">
-        <v>85.31179535741241</v>
+        <v>0.9078239164322991</v>
       </c>
       <c r="K8" t="n">
-        <v>60.26847977177678</v>
+        <v>0.639933884845714</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.407074627659406</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5143877822062476</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.7819841670290288</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9078239164322991</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.639933884845714</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>500.3099902582877</v>
+      </c>
+      <c r="R8" t="n">
+        <v>532.6624666929948</v>
       </c>
     </row>
     <row r="9">
@@ -755,19 +937,40 @@
         <v>9.761989854496864</v>
       </c>
       <c r="G9" t="n">
-        <v>62.36986301369863</v>
+        <v>0.1708763370238318</v>
       </c>
       <c r="H9" t="n">
-        <v>42.353667114756</v>
+        <v>0.4648783194792848</v>
       </c>
       <c r="I9" t="n">
-        <v>56.60190152306233</v>
+        <v>0.6134261543493574</v>
       </c>
       <c r="J9" t="n">
-        <v>82.70991081910232</v>
+        <v>0.889048655944758</v>
       </c>
       <c r="K9" t="n">
-        <v>70.18770086708453</v>
+        <v>0.7558648315081339</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.745592669159946</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.4648783194792848</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6134261543493574</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.889048655944758</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.7558648315081339</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>530.0883508411283</v>
+      </c>
+      <c r="R9" t="n">
+        <v>577.5806303325732</v>
       </c>
     </row>
     <row r="10">
@@ -790,19 +993,40 @@
         <v>10.7930651071141</v>
       </c>
       <c r="G10" t="n">
-        <v>64.1256830601093</v>
+        <v>0.1752067843172385</v>
       </c>
       <c r="H10" t="n">
-        <v>46.56432601225006</v>
+        <v>0.5066374687017847</v>
       </c>
       <c r="I10" t="n">
-        <v>66.56705386289079</v>
+        <v>0.7247450098000664</v>
       </c>
       <c r="J10" t="n">
-        <v>82.48597729151199</v>
+        <v>0.8869197836313735</v>
       </c>
       <c r="K10" t="n">
-        <v>63.45856196594657</v>
+        <v>0.6815637836521158</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.56367934536823</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5066374687017847</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.7247450098000664</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.8869197836313735</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.6815637836521158</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>511.2948076987771</v>
+      </c>
+      <c r="R10" t="n">
+        <v>548.3447485149295</v>
       </c>
     </row>
     <row r="11">
@@ -825,19 +1049,40 @@
         <v>11.71133766420777</v>
       </c>
       <c r="G11" t="n">
-        <v>62.38904109589041</v>
+        <v>0.1709288797147683</v>
       </c>
       <c r="H11" t="n">
-        <v>50.63960362235834</v>
+        <v>0.5569761280825557</v>
       </c>
       <c r="I11" t="n">
-        <v>66.96227531717463</v>
+        <v>0.7278981699081996</v>
       </c>
       <c r="J11" t="n">
-        <v>81.12484757925556</v>
+        <v>0.872151101108652</v>
       </c>
       <c r="K11" t="n">
-        <v>53.43976697789072</v>
+        <v>0.5734500902390893</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.814992421761597</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5569761280825557</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.7278981699081996</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.872151101108652</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.5734500902390893</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>531.9649254979296</v>
+      </c>
+      <c r="R11" t="n">
+        <v>574.2797235760288</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +1105,40 @@
         <v>9.657188452871823</v>
       </c>
       <c r="G12" t="n">
-        <v>62.92054794520548</v>
+        <v>0.1723850628635767</v>
       </c>
       <c r="H12" t="n">
-        <v>46.79599559580397</v>
+        <v>0.5137724661886521</v>
       </c>
       <c r="I12" t="n">
-        <v>60.06551950897995</v>
+        <v>0.6520622990182234</v>
       </c>
       <c r="J12" t="n">
-        <v>81.13179182151364</v>
+        <v>0.8723856511225317</v>
       </c>
       <c r="K12" t="n">
-        <v>66.0482583367162</v>
+        <v>0.7116698310598109</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.719643856429004</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5137724661886521</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.6520622990182234</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8723856511225317</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.7116698310598109</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>523.0274542858091</v>
+      </c>
+      <c r="R12" t="n">
+        <v>568.3986714431285</v>
       </c>
     </row>
     <row r="13">
@@ -895,19 +1161,40 @@
         <v>10.42199088149294</v>
       </c>
       <c r="G13" t="n">
-        <v>61.88397790055249</v>
+        <v>0.1709502151948964</v>
       </c>
       <c r="H13" t="n">
-        <v>51.89773328439782</v>
+        <v>0.5709276262303937</v>
       </c>
       <c r="I13" t="n">
-        <v>54.07764307152726</v>
+        <v>0.5870851421687017</v>
       </c>
       <c r="J13" t="n">
-        <v>79.3275194763208</v>
+        <v>0.8527732024635069</v>
       </c>
       <c r="K13" t="n">
-        <v>64.78705908243501</v>
+        <v>0.7196959562973185</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.850184294645489</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5709276262303937</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.5870851421687017</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8527732024635069</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.7196959562973185</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>529.2466544157829</v>
+      </c>
+      <c r="R13" t="n">
+        <v>578.3402983834255</v>
       </c>
     </row>
     <row r="14">
@@ -930,19 +1217,40 @@
         <v>10.87686946610319</v>
       </c>
       <c r="G14" t="n">
-        <v>59.72950819672131</v>
+        <v>0.1631953775866702</v>
       </c>
       <c r="H14" t="n">
-        <v>38.4604146514769</v>
+        <v>0.4164437782425106</v>
       </c>
       <c r="I14" t="n">
-        <v>65.72612794584096</v>
+        <v>0.7158057100763395</v>
       </c>
       <c r="J14" t="n">
-        <v>80.25355999430784</v>
+        <v>0.8630497132800642</v>
       </c>
       <c r="K14" t="n">
-        <v>57.03029412046125</v>
+        <v>0.61232510585495</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.85045622011838</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4164437782425106</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.7158057100763395</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.8630497132800642</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.61232510585495</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>534.9418330297306</v>
+      </c>
+      <c r="R14" t="n">
+        <v>584.0418626770366</v>
       </c>
     </row>
     <row r="15">
@@ -965,19 +1273,40 @@
         <v>10.8763790159359</v>
       </c>
       <c r="G15" t="n">
-        <v>63.59452054794521</v>
+        <v>0.1742315631450554</v>
       </c>
       <c r="H15" t="n">
-        <v>46.48289349612752</v>
+        <v>0.511779807873857</v>
       </c>
       <c r="I15" t="n">
-        <v>66.38160580160265</v>
+        <v>0.7216176555621394</v>
       </c>
       <c r="J15" t="n">
-        <v>84.32884304341638</v>
+        <v>0.9072380729812476</v>
       </c>
       <c r="K15" t="n">
-        <v>59.46772058826588</v>
+        <v>0.6397226282024876</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.402192508668463</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.511779807873857</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.7216176555621394</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9072380729812476</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.6397226282024876</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>511.2587899618068</v>
+      </c>
+      <c r="R15" t="n">
+        <v>549.2754494674359</v>
       </c>
     </row>
     <row r="16">
@@ -1000,19 +1329,40 @@
         <v>10.33235194582539</v>
       </c>
       <c r="G16" t="n">
-        <v>60.9972602739726</v>
+        <v>0.1671157815725277</v>
       </c>
       <c r="H16" t="n">
-        <v>44.11647659440142</v>
+        <v>0.4845076271367745</v>
       </c>
       <c r="I16" t="n">
-        <v>55.86133632749014</v>
+        <v>0.6059318461122524</v>
       </c>
       <c r="J16" t="n">
-        <v>83.43835698960235</v>
+        <v>0.8970826131938778</v>
       </c>
       <c r="K16" t="n">
-        <v>62.93986652813332</v>
+        <v>0.6771786061706289</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.754836812166949</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.4845076271367745</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.6059318461122524</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8970826131938778</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.6771786061706289</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>534.9635328797613</v>
+      </c>
+      <c r="R16" t="n">
+        <v>585.7714746928872</v>
       </c>
     </row>
     <row r="17">
@@ -1035,19 +1385,40 @@
         <v>11.25524295593288</v>
       </c>
       <c r="G17" t="n">
-        <v>61.53150684931507</v>
+        <v>0.1685794708200413</v>
       </c>
       <c r="H17" t="n">
-        <v>46.41240529549335</v>
+        <v>0.5103067293366835</v>
       </c>
       <c r="I17" t="n">
-        <v>59.72375094865374</v>
+        <v>0.6496324033143476</v>
       </c>
       <c r="J17" t="n">
-        <v>84.33085170640872</v>
+        <v>0.9068876515374756</v>
       </c>
       <c r="K17" t="n">
-        <v>57.98847681008841</v>
+        <v>0.6229533528598974</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.554543802980112</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5103067293366835</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6496324033143476</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.9068876515374756</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6229533528598974</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>531.5514971408717</v>
+      </c>
+      <c r="R17" t="n">
+        <v>579.1224710219077</v>
       </c>
     </row>
     <row r="18">
@@ -1070,19 +1441,40 @@
         <v>11.52723090169492</v>
       </c>
       <c r="G18" t="n">
-        <v>63.2103825136612</v>
+        <v>0.1727059631520798</v>
       </c>
       <c r="H18" t="n">
-        <v>45.97156489335708</v>
+        <v>0.4996389695362077</v>
       </c>
       <c r="I18" t="n">
-        <v>58.92004121921598</v>
+        <v>0.6403392866082979</v>
       </c>
       <c r="J18" t="n">
-        <v>81.2535962142001</v>
+        <v>0.8733349347414388</v>
       </c>
       <c r="K18" t="n">
-        <v>69.16291822619661</v>
+        <v>0.7449932600842226</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.546542512338883</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4996389695362077</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6403392866082979</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.8733349347414388</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.7449932600842226</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>530.9953711542239</v>
+      </c>
+      <c r="R18" t="n">
+        <v>574.558157271514</v>
       </c>
     </row>
     <row r="19">
@@ -1105,19 +1497,40 @@
         <v>9.819861205453202</v>
       </c>
       <c r="G19" t="n">
-        <v>63.72252747252747</v>
+        <v>0.1750618886607898</v>
       </c>
       <c r="H19" t="n">
-        <v>45.48857294325952</v>
+        <v>0.4998147702431526</v>
       </c>
       <c r="I19" t="n">
-        <v>61.12000045295841</v>
+        <v>0.6646105952525793</v>
       </c>
       <c r="J19" t="n">
-        <v>84.04674281554065</v>
+        <v>0.9138839916597924</v>
       </c>
       <c r="K19" t="n">
-        <v>66.80611867637171</v>
+        <v>0.7180700606403692</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.326062933366342</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4998147702431526</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6646105952525793</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.9138839916597924</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.7180700606403692</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>504.9409659545557</v>
+      </c>
+      <c r="R19" t="n">
+        <v>544.7080011511683</v>
       </c>
     </row>
     <row r="20">
@@ -1140,19 +1553,40 @@
         <v>11.1746724044071</v>
       </c>
       <c r="G20" t="n">
-        <v>67.32409972299169</v>
+        <v>0.186493351033218</v>
       </c>
       <c r="H20" t="n">
-        <v>53.78320636603621</v>
+        <v>0.5920370141691658</v>
       </c>
       <c r="I20" t="n">
-        <v>71.31244444947731</v>
+        <v>0.7848968655055869</v>
       </c>
       <c r="J20" t="n">
-        <v>83.79827800916338</v>
+        <v>0.9310584375699609</v>
       </c>
       <c r="K20" t="n">
-        <v>63.53050128996056</v>
+        <v>0.6827407927765407</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.330861372822679</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5920370141691658</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.7848968655055869</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.9310584375699609</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.6827407927765407</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>484.6297976799591</v>
+      </c>
+      <c r="R20" t="n">
+        <v>513.6339204950301</v>
       </c>
     </row>
     <row r="21">
@@ -1175,19 +1609,40 @@
         <v>10.60521618026821</v>
       </c>
       <c r="G21" t="n">
-        <v>64.66573816155989</v>
+        <v>0.180127404349749</v>
       </c>
       <c r="H21" t="n">
-        <v>50.26722703782063</v>
+        <v>0.5580850949392967</v>
       </c>
       <c r="I21" t="n">
-        <v>62.9145827161053</v>
+        <v>0.6903438144278401</v>
       </c>
       <c r="J21" t="n">
-        <v>86.03144132594565</v>
+        <v>0.9561836963057151</v>
       </c>
       <c r="K21" t="n">
-        <v>62.57725825593364</v>
+        <v>0.6800727859911576</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.537788393068538</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5580850949392967</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6903438144278401</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.9561836963057151</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6800727859911576</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>503.8646558896801</v>
+      </c>
+      <c r="R21" t="n">
+        <v>541.4804074715307</v>
       </c>
     </row>
     <row r="22">
@@ -1210,19 +1665,40 @@
         <v>9.141904523698566</v>
       </c>
       <c r="G22" t="n">
-        <v>65.50410958904109</v>
+        <v>0.1794633139425783</v>
       </c>
       <c r="H22" t="n">
-        <v>57.06887062678924</v>
+        <v>0.6211276518651055</v>
       </c>
       <c r="I22" t="n">
-        <v>57.99905091906784</v>
+        <v>0.6367518942980774</v>
       </c>
       <c r="J22" t="n">
-        <v>83.20686349267332</v>
+        <v>0.8943710046900172</v>
       </c>
       <c r="K22" t="n">
-        <v>66.33236150278189</v>
+        <v>0.7136909348754715</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.443798475367515</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6211276518651055</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.6367518942980774</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.8943710046900172</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.7136909348754715</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>496.1364831576691</v>
+      </c>
+      <c r="R22" t="n">
+        <v>534.105594283366</v>
       </c>
     </row>
     <row r="23">
@@ -1245,19 +1721,40 @@
         <v>10.85697722308368</v>
       </c>
       <c r="G23" t="n">
-        <v>65.99449035812673</v>
+        <v>0.1818030037413959</v>
       </c>
       <c r="H23" t="n">
-        <v>55.00076522918655</v>
+        <v>0.6041507565002302</v>
       </c>
       <c r="I23" t="n">
-        <v>60.18887834354521</v>
+        <v>0.6616835496165799</v>
       </c>
       <c r="J23" t="n">
-        <v>85.29897652189752</v>
+        <v>0.9274114685430128</v>
       </c>
       <c r="K23" t="n">
-        <v>66.21013436416068</v>
+        <v>0.7119226950537424</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.412150533252808</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6041507565002302</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.6616835496165799</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.9274114685430128</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.7119226950537424</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>508.3402921385028</v>
+      </c>
+      <c r="R23" t="n">
+        <v>545.2275965994044</v>
       </c>
     </row>
     <row r="24">
@@ -1280,19 +1777,40 @@
         <v>10.57453236112048</v>
       </c>
       <c r="G24" t="n">
-        <v>61.86225895316804</v>
+        <v>0.1704194461519781</v>
       </c>
       <c r="H24" t="n">
-        <v>47.95556405810207</v>
+        <v>0.5261239692291976</v>
       </c>
       <c r="I24" t="n">
-        <v>61.0020755861928</v>
+        <v>0.66316407240063</v>
       </c>
       <c r="J24" t="n">
-        <v>81.92554418357663</v>
+        <v>0.8998675816627831</v>
       </c>
       <c r="K24" t="n">
-        <v>59.58924059091479</v>
+        <v>0.63997069029951</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.616900655769492</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5261239692291976</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.66316407240063</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.8998675816627831</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.63997069029951</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>528.5841037679526</v>
+      </c>
+      <c r="R24" t="n">
+        <v>572.6909994216695</v>
       </c>
     </row>
     <row r="25">
@@ -1315,19 +1833,40 @@
         <v>11.5140058501222</v>
       </c>
       <c r="G25" t="n">
-        <v>63.20224719101124</v>
+        <v>0.1775344022219417</v>
       </c>
       <c r="H25" t="n">
-        <v>44.01073667481013</v>
+        <v>0.4885148496363123</v>
       </c>
       <c r="I25" t="n">
-        <v>62.36668972873548</v>
+        <v>0.6855139708731359</v>
       </c>
       <c r="J25" t="n">
-        <v>84.3247156300416</v>
+        <v>0.9695646116254277</v>
       </c>
       <c r="K25" t="n">
-        <v>65.58889275374631</v>
+        <v>0.7136384459232339</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.296181828833566</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4885148496363123</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.6855139708731359</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.9695646116254277</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.7136384459232339</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>502.1481546811596</v>
+      </c>
+      <c r="R25" t="n">
+        <v>541.590101585327</v>
       </c>
     </row>
     <row r="26">
@@ -1350,19 +1889,40 @@
         <v>11.30667397663176</v>
       </c>
       <c r="G26" t="n">
-        <v>60.93131868131868</v>
+        <v>0.1673937326409854</v>
       </c>
       <c r="H26" t="n">
-        <v>46.14456374083123</v>
+        <v>0.5073442610925476</v>
       </c>
       <c r="I26" t="n">
-        <v>59.33740766365262</v>
+        <v>0.6516895696260337</v>
       </c>
       <c r="J26" t="n">
-        <v>82.00352951771785</v>
+        <v>0.8814945137773659</v>
       </c>
       <c r="K26" t="n">
-        <v>58.66944448645376</v>
+        <v>0.6300465073778264</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.551553394199674</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5073442610925476</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.6516895696260337</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.8814945137773659</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.6300465073778264</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>520.9339873783026</v>
+      </c>
+      <c r="R26" t="n">
+        <v>566.4982664846987</v>
       </c>
     </row>
     <row r="27">
@@ -1385,19 +1945,40 @@
         <v>10.87118526640702</v>
       </c>
       <c r="G27" t="n">
-        <v>60.02770083102493</v>
+        <v>0.1662817197535317</v>
       </c>
       <c r="H27" t="n">
-        <v>46.92382848600924</v>
+        <v>0.5157416474396411</v>
       </c>
       <c r="I27" t="n">
-        <v>58.8498616226775</v>
+        <v>0.6396149848532334</v>
       </c>
       <c r="J27" t="n">
-        <v>81.4778169946413</v>
+        <v>0.8952940116683676</v>
       </c>
       <c r="K27" t="n">
-        <v>55.6074382720717</v>
+        <v>0.6106950674700466</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.502313819643335</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5157416474396411</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.6396149848532334</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.8952940116683676</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.6106950674700466</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>507.7614042337857</v>
+      </c>
+      <c r="R27" t="n">
+        <v>554.6036071249448</v>
       </c>
     </row>
     <row r="28">
@@ -1420,19 +2001,40 @@
         <v>11.56912428073786</v>
       </c>
       <c r="G28" t="n">
-        <v>63.6786703601108</v>
+        <v>0.1763952087537695</v>
       </c>
       <c r="H28" t="n">
-        <v>44.47693142762233</v>
+        <v>0.4884587335367209</v>
       </c>
       <c r="I28" t="n">
-        <v>63.89944902882063</v>
+        <v>0.6951623735037862</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8719757443849</v>
+        <v>0.9219623819767492</v>
       </c>
       <c r="K28" t="n">
-        <v>65.16230486968969</v>
+        <v>0.7172358882799346</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.37588206028998</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4884587335367209</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.6951623735037862</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.9219623819767492</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7172358882799346</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>516.215150526577</v>
+      </c>
+      <c r="R28" t="n">
+        <v>556.1687578854009</v>
       </c>
     </row>
     <row r="29">
@@ -1455,19 +2057,40 @@
         <v>10.94636400308503</v>
       </c>
       <c r="G29" t="n">
-        <v>62.07222222222222</v>
+        <v>0.1724228395061728</v>
       </c>
       <c r="H29" t="n">
-        <v>36.24131383626542</v>
+        <v>0.4016523745402774</v>
       </c>
       <c r="I29" t="n">
-        <v>62.13221610032023</v>
+        <v>0.6825549583177165</v>
       </c>
       <c r="J29" t="n">
-        <v>85.09857750827095</v>
+        <v>0.9352990077014787</v>
       </c>
       <c r="K29" t="n">
-        <v>67.33145389966691</v>
+        <v>0.7321238058070619</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.501384498619333</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.4016523745402774</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.6825549583177165</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.9352990077014787</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.7321238058070619</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>533.9679767883121</v>
+      </c>
+      <c r="R29" t="n">
+        <v>580.10469500738</v>
       </c>
     </row>
     <row r="30">
@@ -1490,19 +2113,40 @@
         <v>10.79289526090309</v>
       </c>
       <c r="G30" t="n">
-        <v>64.41369863013699</v>
+        <v>0.1764758866579096</v>
       </c>
       <c r="H30" t="n">
-        <v>44.69157015373628</v>
+        <v>0.492148352145005</v>
       </c>
       <c r="I30" t="n">
-        <v>67.37507929780571</v>
+        <v>0.7329649263323654</v>
       </c>
       <c r="J30" t="n">
-        <v>83.71846279900295</v>
+        <v>0.9000396147220819</v>
       </c>
       <c r="K30" t="n">
-        <v>64.19925493369203</v>
+        <v>0.6899494475195896</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.245530061336781</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.492148352145005</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7329649263323654</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.9000396147220819</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6899494475195896</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>504.3108198618372</v>
+      </c>
+      <c r="R30" t="n">
+        <v>539.8186129418292</v>
       </c>
     </row>
     <row r="31">
@@ -1525,19 +2169,40 @@
         <v>11.04666190500982</v>
       </c>
       <c r="G31" t="n">
-        <v>64.0495867768595</v>
+        <v>0.1764451426359766</v>
       </c>
       <c r="H31" t="n">
-        <v>42.7156356197049</v>
+        <v>0.4743709314925066</v>
       </c>
       <c r="I31" t="n">
-        <v>65.3667591131627</v>
+        <v>0.7102684416044357</v>
       </c>
       <c r="J31" t="n">
-        <v>85.71119189889014</v>
+        <v>0.9318802124881925</v>
       </c>
       <c r="K31" t="n">
-        <v>64.78477451014882</v>
+        <v>0.6966788692636484</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.374321166554103</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.4743709314925066</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.7102684416044357</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.9318802124881925</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.6966788692636484</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>508.3495773071387</v>
+      </c>
+      <c r="R31" t="n">
+        <v>546.3017648481552</v>
       </c>
     </row>
     <row r="32">
@@ -1560,19 +2225,40 @@
         <v>11.45930397697813</v>
       </c>
       <c r="G32" t="n">
-        <v>63.03601108033241</v>
+        <v>0.174614989142195</v>
       </c>
       <c r="H32" t="n">
-        <v>48.2327599507832</v>
+        <v>0.5366083033621377</v>
       </c>
       <c r="I32" t="n">
-        <v>63.08095339684794</v>
+        <v>0.6853894781356845</v>
       </c>
       <c r="J32" t="n">
-        <v>85.34123546554322</v>
+        <v>0.9377693679274677</v>
       </c>
       <c r="K32" t="n">
-        <v>58.25038213747416</v>
+        <v>0.6323749159363922</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.490440427322085</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5366083033621377</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.6853894781356845</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.9377693679274677</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.6323749159363922</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>510.1608506357464</v>
+      </c>
+      <c r="R32" t="n">
+        <v>551.1139548961813</v>
       </c>
     </row>
     <row r="33">
@@ -1595,19 +2281,40 @@
         <v>11.85010113018455</v>
       </c>
       <c r="G33" t="n">
-        <v>61.07671232876712</v>
+        <v>0.1673334584349784</v>
       </c>
       <c r="H33" t="n">
-        <v>45.3248084438976</v>
+        <v>0.497720568926341</v>
       </c>
       <c r="I33" t="n">
-        <v>60.36352696040492</v>
+        <v>0.6558006749762271</v>
       </c>
       <c r="J33" t="n">
-        <v>81.90588299419069</v>
+        <v>0.8803092827703128</v>
       </c>
       <c r="K33" t="n">
-        <v>59.13315632758124</v>
+        <v>0.635944278699898</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.514703015588094</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.497720568926341</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.6558006749762271</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.8803092827703128</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.635944278699898</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>532.2148130451878</v>
+      </c>
+      <c r="R33" t="n">
+        <v>578.6641182584268</v>
       </c>
     </row>
     <row r="34">
@@ -1630,19 +2337,40 @@
         <v>10.57880544706722</v>
       </c>
       <c r="G34" t="n">
-        <v>62.66301369863014</v>
+        <v>0.1716794895852881</v>
       </c>
       <c r="H34" t="n">
-        <v>42.04805342715441</v>
+        <v>0.461666385255423</v>
       </c>
       <c r="I34" t="n">
-        <v>66.28970908747698</v>
+        <v>0.7212481343648082</v>
       </c>
       <c r="J34" t="n">
-        <v>83.06419438037163</v>
+        <v>0.8932987132895522</v>
       </c>
       <c r="K34" t="n">
-        <v>61.52318648182154</v>
+        <v>0.6618189915263114</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.31655225692068</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.461666385255423</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.7212481343648082</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.8932987132895522</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.6618189915263114</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>512.5553064870107</v>
+      </c>
+      <c r="R34" t="n">
+        <v>555.0739014243029</v>
       </c>
     </row>
     <row r="35">
@@ -1665,19 +2393,40 @@
         <v>11.80411745051159</v>
       </c>
       <c r="G35" t="n">
-        <v>59.02739726027397</v>
+        <v>0.1617188966034903</v>
       </c>
       <c r="H35" t="n">
-        <v>49.53386726030172</v>
+        <v>0.5452421810352167</v>
       </c>
       <c r="I35" t="n">
-        <v>50.78340339656568</v>
+        <v>0.5501414380068066</v>
       </c>
       <c r="J35" t="n">
-        <v>79.77243689543882</v>
+        <v>0.8573834237610218</v>
       </c>
       <c r="K35" t="n">
-        <v>58.47307811393284</v>
+        <v>0.6283863207693202</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.59773659404326</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5452421810352167</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.5501414380068066</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8573834237610218</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.6283863207693202</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>542.9101236995252</v>
+      </c>
+      <c r="R35" t="n">
+        <v>598.1694940481893</v>
       </c>
     </row>
     <row r="36">
@@ -1700,19 +2449,40 @@
         <v>11.77613171141861</v>
       </c>
       <c r="G36" t="n">
-        <v>56.66942148760331</v>
+        <v>0.1561141087812763</v>
       </c>
       <c r="H36" t="n">
-        <v>38.95037630289224</v>
+        <v>0.4267339805161771</v>
       </c>
       <c r="I36" t="n">
-        <v>56.10750992743478</v>
+        <v>0.6104999567006408</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01969374328266</v>
+        <v>0.8349206646202175</v>
       </c>
       <c r="K36" t="n">
-        <v>58.22253345776014</v>
+        <v>0.6260194218242875</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.710423331289226</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.4267339805161771</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.6104999567006408</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.8349206646202175</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.6260194218242875</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>559.6126576091203</v>
+      </c>
+      <c r="R36" t="n">
+        <v>619.7348589742879</v>
       </c>
     </row>
     <row r="37">
@@ -1735,19 +2505,40 @@
         <v>10.71495795338498</v>
       </c>
       <c r="G37" t="n">
-        <v>64.41917808219178</v>
+        <v>0.1764908988553199</v>
       </c>
       <c r="H37" t="n">
-        <v>46.05500418114325</v>
+        <v>0.5069662634543848</v>
       </c>
       <c r="I37" t="n">
-        <v>64.00118142777401</v>
+        <v>0.6966079579708611</v>
       </c>
       <c r="J37" t="n">
-        <v>81.89151841025307</v>
+        <v>0.8812423110426064</v>
       </c>
       <c r="K37" t="n">
-        <v>67.81763623323651</v>
+        <v>0.7303433387785709</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.396072859717871</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5069662634543848</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.6966079579708611</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.8812423110426064</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7303433387785709</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>523.1760092310479</v>
+      </c>
+      <c r="R37" t="n">
+        <v>564.6623445336228</v>
       </c>
     </row>
     <row r="38">
@@ -1770,19 +2561,40 @@
         <v>10.54037997775419</v>
       </c>
       <c r="G38" t="n">
-        <v>64.13934426229508</v>
+        <v>0.1752441100062707</v>
       </c>
       <c r="H38" t="n">
-        <v>48.6819231228697</v>
+        <v>0.5294658816886191</v>
       </c>
       <c r="I38" t="n">
-        <v>61.74726572997554</v>
+        <v>0.6708968250160573</v>
       </c>
       <c r="J38" t="n">
-        <v>81.81403824358971</v>
+        <v>0.8797118670027224</v>
       </c>
       <c r="K38" t="n">
-        <v>66.94366995905692</v>
+        <v>0.719722394061765</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.304499070013308</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.5294658816886191</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6708968250160573</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.8797118670027224</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.719722394061765</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>521.5711900300709</v>
+      </c>
+      <c r="R38" t="n">
+        <v>562.0471696979853</v>
       </c>
     </row>
     <row r="39">
@@ -1805,19 +2617,40 @@
         <v>11.8053302171495</v>
       </c>
       <c r="G39" t="n">
-        <v>58.84931506849315</v>
+        <v>0.1612310001876525</v>
       </c>
       <c r="H39" t="n">
-        <v>45.08535470136522</v>
+        <v>0.4950036377631714</v>
       </c>
       <c r="I39" t="n">
-        <v>58.45876116186786</v>
+        <v>0.6350284865143118</v>
       </c>
       <c r="J39" t="n">
-        <v>79.58493519829989</v>
+        <v>0.8554914593415646</v>
       </c>
       <c r="K39" t="n">
-        <v>54.78199641259845</v>
+        <v>0.5876322923433438</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.747153914438819</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.4950036377631714</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.6350284865143118</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.8554914593415646</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5876322923433438</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>563.9099521906583</v>
+      </c>
+      <c r="R39" t="n">
+        <v>618.6969584756971</v>
       </c>
     </row>
     <row r="40">
@@ -1840,19 +2673,40 @@
         <v>10.55331880670815</v>
       </c>
       <c r="G40" t="n">
-        <v>59.93972602739726</v>
+        <v>0.1642184274723213</v>
       </c>
       <c r="H40" t="n">
-        <v>36.43428171890406</v>
+        <v>0.3993203708194769</v>
       </c>
       <c r="I40" t="n">
-        <v>56.42262374903152</v>
+        <v>0.6130461331344662</v>
       </c>
       <c r="J40" t="n">
-        <v>79.76722755650326</v>
+        <v>0.8577333992744969</v>
       </c>
       <c r="K40" t="n">
-        <v>69.17154343926737</v>
+        <v>0.7454616767831218</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.41345199265811</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.3993203708194769</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.6130461331344662</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.8577333992744969</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7454616767831218</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>546.4542189361439</v>
+      </c>
+      <c r="R40" t="n">
+        <v>598.3431670419717</v>
       </c>
     </row>
     <row r="41">
@@ -1875,19 +2729,40 @@
         <v>10.25003607398595</v>
       </c>
       <c r="G41" t="n">
-        <v>61.67857142857143</v>
+        <v>0.1694466248037677</v>
       </c>
       <c r="H41" t="n">
-        <v>44.55544136762813</v>
+        <v>0.4960736422637065</v>
       </c>
       <c r="I41" t="n">
-        <v>59.53211674449485</v>
+        <v>0.6474596118986999</v>
       </c>
       <c r="J41" t="n">
-        <v>80.54094812561416</v>
+        <v>0.8661221329630522</v>
       </c>
       <c r="K41" t="n">
-        <v>64.13229938520942</v>
+        <v>0.6890058437708865</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.439786566555303</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.4960736422637065</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.6474596118986999</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.8661221329630522</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.6890058437708865</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>534.4873511354724</v>
+      </c>
+      <c r="R41" t="n">
+        <v>580.1892356624074</v>
       </c>
     </row>
     <row r="42">
@@ -1910,19 +2785,40 @@
         <v>11.50815256602159</v>
       </c>
       <c r="G42" t="n">
-        <v>55.16393442622951</v>
+        <v>0.1507211323121025</v>
       </c>
       <c r="H42" t="n">
-        <v>40.25885100403987</v>
+        <v>0.4370844189883183</v>
       </c>
       <c r="I42" t="n">
-        <v>52.88496831587356</v>
+        <v>0.5740426832039487</v>
       </c>
       <c r="J42" t="n">
-        <v>79.97327117527841</v>
+        <v>0.8598613093257282</v>
       </c>
       <c r="K42" t="n">
-        <v>50.05578586288271</v>
+        <v>0.5365889657187821</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.700177108182436</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.4370844189883183</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5740426832039487</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.8598613093257282</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.5365889657187821</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>561.3733112821825</v>
+      </c>
+      <c r="R42" t="n">
+        <v>624.0482638862521</v>
       </c>
     </row>
     <row r="43">
@@ -1945,19 +2841,40 @@
         <v>10.36639296267414</v>
       </c>
       <c r="G43" t="n">
-        <v>57.58356164383562</v>
+        <v>0.157763182585851</v>
       </c>
       <c r="H43" t="n">
-        <v>34.991765011156</v>
+        <v>0.3838811215332085</v>
       </c>
       <c r="I43" t="n">
-        <v>56.47126338808652</v>
+        <v>0.6142463522138877</v>
       </c>
       <c r="J43" t="n">
-        <v>79.81492686060085</v>
+        <v>0.8582065053531811</v>
       </c>
       <c r="K43" t="n">
-        <v>60.97886723764003</v>
+        <v>0.6569632075810159</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.620703231657351</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.3838811215332085</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6142463522138877</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.8582065053531811</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6569632075810159</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>559.0385258819171</v>
+      </c>
+      <c r="R43" t="n">
+        <v>616.8392896726911</v>
       </c>
     </row>
     <row r="44">
@@ -1980,19 +2897,40 @@
         <v>11.48604774959429</v>
       </c>
       <c r="G44" t="n">
-        <v>55.66575342465753</v>
+        <v>0.1525089134922124</v>
       </c>
       <c r="H44" t="n">
-        <v>38.55546405567951</v>
+        <v>0.4241214668051275</v>
       </c>
       <c r="I44" t="n">
-        <v>49.57660728997897</v>
+        <v>0.5380526803951472</v>
       </c>
       <c r="J44" t="n">
-        <v>80.31320572674566</v>
+        <v>0.8636410924510105</v>
       </c>
       <c r="K44" t="n">
-        <v>56.30411812214826</v>
+        <v>0.6048744049158294</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.856425899695797</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.4241214668051275</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.5380526803951472</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.8636410924510105</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6048744049158294</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>574.6890483516222</v>
+      </c>
+      <c r="R44" t="n">
+        <v>639.8842230148718</v>
       </c>
     </row>
     <row r="45">
@@ -2015,19 +2953,40 @@
         <v>11.17213095379994</v>
       </c>
       <c r="G45" t="n">
-        <v>56.69230769230769</v>
+        <v>0.1557480980557904</v>
       </c>
       <c r="H45" t="n">
-        <v>39.635454652311</v>
+        <v>0.440528231469108</v>
       </c>
       <c r="I45" t="n">
-        <v>50.25908359659317</v>
+        <v>0.5463758063857499</v>
       </c>
       <c r="J45" t="n">
-        <v>77.89470875789941</v>
+        <v>0.8372948536262348</v>
       </c>
       <c r="K45" t="n">
-        <v>60.79678389263205</v>
+        <v>0.6542538840270459</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.814400341538155</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.440528231469108</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.5463758063857499</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.8372948536262348</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6542538840270459</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>571.6099818947339</v>
+      </c>
+      <c r="R45" t="n">
+        <v>636.7425433725497</v>
       </c>
     </row>
     <row r="46">
@@ -2050,19 +3009,40 @@
         <v>12.05784924949783</v>
       </c>
       <c r="G46" t="n">
-        <v>64.15300546448087</v>
+        <v>0.1752814356953029</v>
       </c>
       <c r="H46" t="n">
-        <v>49.39159840277264</v>
+        <v>0.5380317024793466</v>
       </c>
       <c r="I46" t="n">
-        <v>63.17867124831421</v>
+        <v>0.6882678874298256</v>
       </c>
       <c r="J46" t="n">
-        <v>82.99885552997718</v>
+        <v>0.8930573363484907</v>
       </c>
       <c r="K46" t="n">
-        <v>63.35648678144166</v>
+        <v>0.6815517785779805</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.391009059172666</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.5380317024793466</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.6882678874298256</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.8930573363484907</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.6815517785779805</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>531.7706433848508</v>
+      </c>
+      <c r="R46" t="n">
+        <v>571.6401166204544</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56651_丽江.xlsx
+++ b/my_work/data1/YearMeanER56651_丽江.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FCAA48-BC3A-4867-8FFF-574EDE54B805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21CDB75-F7C1-4EB0-A8B6-659C5415BAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24795" yWindow="5985" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -447,7 +457,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,55 +523,55 @@
         <v>1967</v>
       </c>
       <c r="B2">
-        <v>12.4802216125596</v>
+        <v>13.63395708871723</v>
       </c>
       <c r="C2">
-        <v>9.7108393116052998</v>
+        <v>9.0845987231999707</v>
       </c>
       <c r="D2">
-        <v>18.226291001025899</v>
+        <v>17.296959547241268</v>
       </c>
       <c r="E2">
-        <v>19.610310756953101</v>
+        <v>18.257404237766607</v>
       </c>
       <c r="F2">
-        <v>2.1475992638872499</v>
+        <v>10.912402530112509</v>
       </c>
       <c r="G2">
-        <v>9.5284377043584306E-2</v>
+        <v>0.18221624980348941</v>
       </c>
       <c r="H2">
-        <v>0.46465027541882697</v>
+        <v>0.52769588855146743</v>
       </c>
       <c r="I2">
-        <v>0.55946676123738703</v>
+        <v>0.6838923914040449</v>
       </c>
       <c r="J2">
-        <v>0.90882854158996595</v>
+        <v>0.90397050249742006</v>
       </c>
       <c r="K2">
-        <v>-3.90684521481242</v>
+        <v>1.036237957528674</v>
       </c>
       <c r="L2">
-        <v>3.48620416355313</v>
+        <v>3.5073684533368095</v>
       </c>
       <c r="M2">
-        <v>5.9204080749285897</v>
+        <v>4.7871624252176517</v>
       </c>
       <c r="N2">
-        <v>4.2613145066263103</v>
+        <v>3.6306333389430847</v>
       </c>
       <c r="O2">
-        <v>2.2671008394362402</v>
+        <v>2.8466911304592015</v>
       </c>
       <c r="P2">
-        <v>2.1612062113646902</v>
+        <v>2.9662843032247483</v>
       </c>
       <c r="Q2">
-        <v>1.37855400890205</v>
+        <v>1.4243162936316065</v>
       </c>
       <c r="R2">
-        <v>1.5212150174390699</v>
+        <v>1.5306545580657187</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -569,55 +579,55 @@
         <v>1968</v>
       </c>
       <c r="B3">
-        <v>12.7218587562372</v>
+        <v>13.690471681902746</v>
       </c>
       <c r="C3">
-        <v>9.5965725548955092</v>
+        <v>9.1647146619776816</v>
       </c>
       <c r="D3">
-        <v>18.032951471914501</v>
+        <v>17.199110239618193</v>
       </c>
       <c r="E3">
-        <v>19.338877336770999</v>
+        <v>18.274308494388514</v>
       </c>
       <c r="F3">
-        <v>3.9310348608464998</v>
+        <v>11.051112976050227</v>
       </c>
       <c r="G3">
-        <v>0.112602315614773</v>
+        <v>0.17974385594479517</v>
       </c>
       <c r="H3">
-        <v>0.47747593268552702</v>
+        <v>0.52546591069101578</v>
       </c>
       <c r="I3">
-        <v>0.58455083982231903</v>
+        <v>0.68353878870288176</v>
       </c>
       <c r="J3">
-        <v>0.90743386523228597</v>
+        <v>0.90072636257181249</v>
       </c>
       <c r="K3">
-        <v>-2.91807136897605</v>
+        <v>0.95459868127684555</v>
       </c>
       <c r="L3">
-        <v>3.4933191472998399</v>
+        <v>3.5404470740491405</v>
       </c>
       <c r="M3">
-        <v>5.68697425323092</v>
+        <v>4.751766082298321</v>
       </c>
       <c r="N3">
-        <v>4.1382122613602004</v>
+        <v>3.6733238440730345</v>
       </c>
       <c r="O3">
-        <v>2.3916909127629502</v>
+        <v>2.9296975818811513</v>
       </c>
       <c r="P3">
-        <v>2.32601985111368</v>
+        <v>2.9965206684132686</v>
       </c>
       <c r="Q3">
-        <v>1.38855457071606</v>
+        <v>1.4310601860007792</v>
       </c>
       <c r="R3">
-        <v>1.5241640889124799</v>
+        <v>1.5403865345309606</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -625,55 +635,55 @@
         <v>1969</v>
       </c>
       <c r="B4">
-        <v>12.9634958999148</v>
+        <v>13.733802003056443</v>
       </c>
       <c r="C4">
-        <v>9.4823057981857204</v>
+        <v>9.2400721260645646</v>
       </c>
       <c r="D4">
-        <v>17.839611942803099</v>
+        <v>17.323920527978348</v>
       </c>
       <c r="E4">
-        <v>19.0674439165889</v>
+        <v>18.280733590121411</v>
       </c>
       <c r="F4">
-        <v>5.7144704578057404</v>
+        <v>10.944164195535402</v>
       </c>
       <c r="G4">
-        <v>0.12992025418596201</v>
+        <v>0.18005554638090651</v>
       </c>
       <c r="H4">
-        <v>0.490301589952227</v>
+        <v>0.53270647042933728</v>
       </c>
       <c r="I4">
-        <v>0.60963491840725004</v>
+        <v>0.68262820822055681</v>
       </c>
       <c r="J4">
-        <v>0.90603918887460599</v>
+        <v>0.89966633934390716</v>
       </c>
       <c r="K4">
-        <v>-1.9292975231396801</v>
+        <v>0.91504066623074554</v>
       </c>
       <c r="L4">
-        <v>3.5004341310465499</v>
+        <v>3.5208196066061097</v>
       </c>
       <c r="M4">
-        <v>5.4535404315332503</v>
+        <v>4.7459598305227049</v>
       </c>
       <c r="N4">
-        <v>4.0151100160941002</v>
+        <v>3.6656378786518191</v>
       </c>
       <c r="O4">
-        <v>2.5162809860896602</v>
+        <v>2.8861542752422622</v>
       </c>
       <c r="P4">
-        <v>2.4908334908626699</v>
+        <v>2.9651818264867087</v>
       </c>
       <c r="Q4">
-        <v>1.39855513253008</v>
+        <v>1.4307826741567509</v>
       </c>
       <c r="R4">
-        <v>1.5271131603858901</v>
+        <v>1.5391955008312714</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -681,55 +691,55 @@
         <v>1970</v>
       </c>
       <c r="B5">
-        <v>13.205133043592401</v>
+        <v>13.809225902786453</v>
       </c>
       <c r="C5">
-        <v>9.3680390414759298</v>
+        <v>9.082372149701456</v>
       </c>
       <c r="D5">
-        <v>17.646272413691701</v>
+        <v>17.16292359091327</v>
       </c>
       <c r="E5">
-        <v>18.796010496406801</v>
+        <v>18.117426945951593</v>
       </c>
       <c r="F5">
-        <v>7.4979060547649796</v>
+        <v>11.956495047163081</v>
       </c>
       <c r="G5">
-        <v>0.14723819275715</v>
+        <v>0.19053303918512218</v>
       </c>
       <c r="H5">
-        <v>0.50312724721892699</v>
+        <v>0.53519139038567676</v>
       </c>
       <c r="I5">
-        <v>0.63471899699218204</v>
+        <v>0.69742919345451071</v>
       </c>
       <c r="J5">
-        <v>0.90464451251692601</v>
+        <v>0.90115782162272584</v>
       </c>
       <c r="K5">
-        <v>-0.94052367730330699</v>
+        <v>1.5314109372876197</v>
       </c>
       <c r="L5">
-        <v>3.50754911479327</v>
+        <v>3.5253365741600491</v>
       </c>
       <c r="M5">
-        <v>5.2201066098355797</v>
+        <v>4.6365220555914037</v>
       </c>
       <c r="N5">
-        <v>3.8920077708279899</v>
+        <v>3.5842521576627284</v>
       </c>
       <c r="O5">
-        <v>2.6408710594163698</v>
+        <v>2.9523462427331495</v>
       </c>
       <c r="P5">
-        <v>2.6556471306116598</v>
+        <v>3.0676812299841285</v>
       </c>
       <c r="Q5">
-        <v>1.4085556943441</v>
+        <v>1.4335570988791513</v>
       </c>
       <c r="R5">
-        <v>1.5300622318593</v>
+        <v>1.5374349105428153</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -961,55 +971,55 @@
         <v>1975</v>
       </c>
       <c r="B10">
-        <v>14.4133187619805</v>
+        <v>13.373981287194022</v>
       </c>
       <c r="C10">
-        <v>8.7967052579269804</v>
+        <v>8.4893284298387304</v>
       </c>
       <c r="D10">
-        <v>16.679574768134799</v>
+        <v>16.756962890548479</v>
       </c>
       <c r="E10">
-        <v>17.438843395496399</v>
+        <v>18.326499884839976</v>
       </c>
       <c r="F10">
-        <v>16.415084039561201</v>
+        <v>10.563604468598026</v>
       </c>
       <c r="G10">
-        <v>0.23382788561309401</v>
+        <v>0.17434231499413311</v>
       </c>
       <c r="H10">
-        <v>0.56725553355242697</v>
+        <v>0.49728547501354925</v>
       </c>
       <c r="I10">
-        <v>0.76013938991683905</v>
+        <v>0.70386646831564459</v>
       </c>
       <c r="J10">
-        <v>0.897671130728526</v>
+        <v>0.89476324793206319</v>
       </c>
       <c r="K10">
-        <v>4.0033455518785503</v>
+        <v>0.68587956895172941</v>
       </c>
       <c r="L10">
-        <v>3.5431240335268299</v>
+        <v>3.5931993537125915</v>
       </c>
       <c r="M10">
-        <v>4.0529375013472304</v>
+        <v>4.7984256817800333</v>
       </c>
       <c r="N10">
-        <v>3.2764965444974599</v>
+        <v>3.5672793890416274</v>
       </c>
       <c r="O10">
-        <v>3.2638214260499301</v>
+        <v>2.8741663307788179</v>
       </c>
       <c r="P10">
-        <v>3.4797153293565999</v>
+        <v>3.3033303199764683</v>
       </c>
       <c r="Q10">
-        <v>1.4585585034141999</v>
+        <v>1.4130506678563317</v>
       </c>
       <c r="R10">
-        <v>1.54480758922634</v>
+        <v>1.5217934457574973</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -1017,55 +1027,55 @@
         <v>1976</v>
       </c>
       <c r="B11">
-        <v>14.654955905658101</v>
+        <v>13.368010166367236</v>
       </c>
       <c r="C11">
-        <v>8.6824385012171899</v>
+        <v>8.4478864485245762</v>
       </c>
       <c r="D11">
-        <v>16.486235239023401</v>
+        <v>16.691011632103365</v>
       </c>
       <c r="E11">
-        <v>17.1674099753143</v>
+        <v>18.351665425509651</v>
       </c>
       <c r="F11">
-        <v>18.198519636520501</v>
+        <v>10.60949659630124</v>
       </c>
       <c r="G11">
-        <v>0.251145824184282</v>
+        <v>0.17451520885875418</v>
       </c>
       <c r="H11">
-        <v>0.58008119081912701</v>
+        <v>0.49915587375119636</v>
       </c>
       <c r="I11">
-        <v>0.78522346850177105</v>
+        <v>0.708042176612529</v>
       </c>
       <c r="J11">
-        <v>0.89627645437084602</v>
+        <v>0.89319455507192524</v>
       </c>
       <c r="K11">
-        <v>4.9921193977149203</v>
+        <v>0.68501641189180673</v>
       </c>
       <c r="L11">
-        <v>3.5502390172735399</v>
+        <v>3.5872953520437192</v>
       </c>
       <c r="M11">
-        <v>3.8195036796495598</v>
+        <v>4.7801324025737841</v>
       </c>
       <c r="N11">
-        <v>3.1533942992313602</v>
+        <v>3.562298971742849</v>
       </c>
       <c r="O11">
-        <v>3.3884114993766401</v>
+        <v>2.8763324509832309</v>
       </c>
       <c r="P11">
-        <v>3.6445289691055902</v>
+        <v>3.2974877756835821</v>
       </c>
       <c r="Q11">
-        <v>1.4685590652282201</v>
+        <v>1.4098366040658179</v>
       </c>
       <c r="R11">
-        <v>1.5477566606997399</v>
+        <v>1.5170766956851942</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -1073,55 +1083,55 @@
         <v>1977</v>
       </c>
       <c r="B12">
-        <v>14.896593049335699</v>
+        <v>13.45366840706639</v>
       </c>
       <c r="C12">
-        <v>8.5681717445073993</v>
+        <v>8.5359360888713685</v>
       </c>
       <c r="D12">
-        <v>16.292895709911999</v>
+        <v>16.613198770733952</v>
       </c>
       <c r="E12">
-        <v>16.895976555132201</v>
+        <v>18.439489574295088</v>
       </c>
       <c r="F12">
-        <v>19.981955233479699</v>
+        <v>10.829864809882546</v>
       </c>
       <c r="G12">
-        <v>0.26846376275547101</v>
+        <v>0.17379794302995702</v>
       </c>
       <c r="H12">
-        <v>0.59290684808582705</v>
+        <v>0.51071992461746818</v>
       </c>
       <c r="I12">
-        <v>0.81030754708670205</v>
+        <v>0.71201337527166308</v>
       </c>
       <c r="J12">
-        <v>0.89488177801316504</v>
+        <v>0.88898586427927073</v>
       </c>
       <c r="K12">
-        <v>5.9808932435512903</v>
+        <v>0.66270314756126325</v>
       </c>
       <c r="L12">
-        <v>3.55735400102026</v>
+        <v>3.6328347659872948</v>
       </c>
       <c r="M12">
-        <v>3.5860698579518901</v>
+        <v>4.7214062742083094</v>
       </c>
       <c r="N12">
-        <v>3.0302920539652498</v>
+        <v>3.6108561925527178</v>
       </c>
       <c r="O12">
-        <v>3.5130015727033501</v>
+        <v>3.0488084571769938</v>
       </c>
       <c r="P12">
-        <v>3.8093426088545801</v>
+        <v>3.3131721321966556</v>
       </c>
       <c r="Q12">
-        <v>1.4785596270422401</v>
+        <v>1.4193569136624786</v>
       </c>
       <c r="R12">
-        <v>1.5507057321731501</v>
+        <v>1.5283351776857055</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">

--- a/my_work/data1/YearMeanER56651_丽江.xlsx
+++ b/my_work/data1/YearMeanER56651_丽江.xlsx
@@ -601,16 +601,16 @@
         <v>1.492327401521969</v>
       </c>
       <c r="S2" t="n">
-        <v>8.675784753611929</v>
+        <v>604.7341494021018</v>
       </c>
       <c r="T2" t="n">
-        <v>8.803746854535744</v>
+        <v>923.1917148217822</v>
       </c>
       <c r="U2" t="n">
-        <v>5.774615992435121</v>
+        <v>632.3603025263784</v>
       </c>
       <c r="V2" t="n">
-        <v>6.067807978351376</v>
+        <v>513.3557065841918</v>
       </c>
     </row>
     <row r="3">
@@ -669,16 +669,16 @@
         <v>1.505601286357828</v>
       </c>
       <c r="S3" t="n">
-        <v>5.014401732458178</v>
+        <v>943.519270096141</v>
       </c>
       <c r="T3" t="n">
-        <v>3.599319475384757</v>
+        <v>1337.996391391583</v>
       </c>
       <c r="U3" t="n">
-        <v>2.618566421980244</v>
+        <v>928.1893895594094</v>
       </c>
       <c r="V3" t="n">
-        <v>2.835753488014888</v>
+        <v>720.5845761514786</v>
       </c>
     </row>
     <row r="4">
@@ -737,16 +737,16 @@
         <v>1.579314440391928</v>
       </c>
       <c r="S4" t="n">
-        <v>4.610180710621</v>
+        <v>1274.436032952083</v>
       </c>
       <c r="T4" t="n">
-        <v>3.844085864592834</v>
+        <v>1753.333680047695</v>
       </c>
       <c r="U4" t="n">
-        <v>3.26172338756895</v>
+        <v>1241.995621196857</v>
       </c>
       <c r="V4" t="n">
-        <v>3.117466129167349</v>
+        <v>1004.755022826815</v>
       </c>
     </row>
     <row r="5">
@@ -805,16 +805,16 @@
         <v>1.534431366032514</v>
       </c>
       <c r="S5" t="n">
-        <v>4.722734823420239</v>
+        <v>1581.673452754322</v>
       </c>
       <c r="T5" t="n">
-        <v>3.634894016966956</v>
+        <v>2165.186914305409</v>
       </c>
       <c r="U5" t="n">
-        <v>2.711981048686707</v>
+        <v>1548.290603033102</v>
       </c>
       <c r="V5" t="n">
-        <v>2.839826458780468</v>
+        <v>1235.812440875023</v>
       </c>
     </row>
     <row r="6">
@@ -873,16 +873,16 @@
         <v>1.530392549388991</v>
       </c>
       <c r="S6" t="n">
-        <v>4.198770955866198</v>
+        <v>1906.44499959086</v>
       </c>
       <c r="T6" t="n">
-        <v>3.258709273706365</v>
+        <v>2538.277065669713</v>
       </c>
       <c r="U6" t="n">
-        <v>3.217114112696697</v>
+        <v>1836.894160533412</v>
       </c>
       <c r="V6" t="n">
-        <v>3.477678843973809</v>
+        <v>1287.564687375981</v>
       </c>
     </row>
     <row r="7">
@@ -941,16 +941,16 @@
         <v>1.556090187421352</v>
       </c>
       <c r="S7" t="n">
-        <v>4.851780603522823</v>
+        <v>2241.352254245414</v>
       </c>
       <c r="T7" t="n">
-        <v>6.336373440519931</v>
+        <v>3014.879850703429</v>
       </c>
       <c r="U7" t="n">
-        <v>5.665664498359259</v>
+        <v>2413.797159134302</v>
       </c>
       <c r="V7" t="n">
-        <v>4.327931792769254</v>
+        <v>1808.734573419149</v>
       </c>
     </row>
     <row r="8">
@@ -1009,16 +1009,16 @@
         <v>1.459349223816424</v>
       </c>
       <c r="S8" t="n">
-        <v>4.27940517322533</v>
+        <v>2571.690617985002</v>
       </c>
       <c r="T8" t="n">
-        <v>3.351563220984572</v>
+        <v>3354.303655676383</v>
       </c>
       <c r="U8" t="n">
-        <v>2.951269943896607</v>
+        <v>2703.585132465145</v>
       </c>
       <c r="V8" t="n">
-        <v>3.268325914099475</v>
+        <v>2092.766670471446</v>
       </c>
     </row>
     <row r="9">
@@ -1077,16 +1077,16 @@
         <v>1.582412685842666</v>
       </c>
       <c r="S9" t="n">
-        <v>5.412758877112709</v>
+        <v>2926.964228778502</v>
       </c>
       <c r="T9" t="n">
-        <v>3.744399170886371</v>
+        <v>3826.594184730666</v>
       </c>
       <c r="U9" t="n">
-        <v>2.62025447105844</v>
+        <v>3018.424500154406</v>
       </c>
       <c r="V9" t="n">
-        <v>3.334335457926161</v>
+        <v>2317.504487177785</v>
       </c>
     </row>
     <row r="10">
@@ -1145,16 +1145,16 @@
         <v>1.498209695395982</v>
       </c>
       <c r="S10" t="n">
-        <v>4.706959285748787</v>
+        <v>3266.407664482889</v>
       </c>
       <c r="T10" t="n">
-        <v>3.542377302547734</v>
+        <v>4220.391052212222</v>
       </c>
       <c r="U10" t="n">
-        <v>2.884996931800882</v>
+        <v>3323.270558911518</v>
       </c>
       <c r="V10" t="n">
-        <v>3.274117598512037</v>
+        <v>2583.724765639501</v>
       </c>
     </row>
     <row r="11">
@@ -1213,16 +1213,16 @@
         <v>1.57336910568775</v>
       </c>
       <c r="S11" t="n">
-        <v>4.48650176074641</v>
+        <v>3592.842868831602</v>
       </c>
       <c r="T11" t="n">
-        <v>3.805085075792195</v>
+        <v>4612.636986147042</v>
       </c>
       <c r="U11" t="n">
-        <v>3.738712481952047</v>
+        <v>3665.41856639881</v>
       </c>
       <c r="V11" t="n">
-        <v>3.375909558248949</v>
+        <v>2915.367853811658</v>
       </c>
     </row>
     <row r="12">
@@ -1281,16 +1281,16 @@
         <v>1.557256634090763</v>
       </c>
       <c r="S12" t="n">
-        <v>5.122926504649715</v>
+        <v>3939.173410243469</v>
       </c>
       <c r="T12" t="n">
-        <v>3.864679120688792</v>
+        <v>5037.824105967495</v>
       </c>
       <c r="U12" t="n">
-        <v>3.058830086297688</v>
+        <v>3999.355846097169</v>
       </c>
       <c r="V12" t="n">
-        <v>2.976255123212163</v>
+        <v>3167.582920477568</v>
       </c>
     </row>
     <row r="13">
@@ -1349,16 +1349,16 @@
         <v>1.597625133655872</v>
       </c>
       <c r="S13" t="n">
-        <v>4.95562264445068</v>
+        <v>4229.831020936843</v>
       </c>
       <c r="T13" t="n">
-        <v>4.593288849356605</v>
+        <v>5550.152000763524</v>
       </c>
       <c r="U13" t="n">
-        <v>2.908954941604668</v>
+        <v>4345.429176195776</v>
       </c>
       <c r="V13" t="n">
-        <v>3.052582165289875</v>
+        <v>3412.290799551223</v>
       </c>
     </row>
     <row r="14">
@@ -1417,16 +1417,16 @@
         <v>1.595742794199554</v>
       </c>
       <c r="S14" t="n">
-        <v>4.789409757771916</v>
+        <v>4631.927134391405</v>
       </c>
       <c r="T14" t="n">
-        <v>3.815424623082519</v>
+        <v>5939.360155229229</v>
       </c>
       <c r="U14" t="n">
-        <v>3.094604013893672</v>
+        <v>4674.385548024155</v>
       </c>
       <c r="V14" t="n">
-        <v>3.862897767704363</v>
+        <v>3701.297136365905</v>
       </c>
     </row>
     <row r="15">
@@ -1485,16 +1485,16 @@
         <v>1.504864245116263</v>
       </c>
       <c r="S15" t="n">
-        <v>4.30447526989151</v>
+        <v>4953.258129284612</v>
       </c>
       <c r="T15" t="n">
-        <v>3.340634853725175</v>
+        <v>6304.438042789881</v>
       </c>
       <c r="U15" t="n">
-        <v>2.936459785396372</v>
+        <v>4960.624170940338</v>
       </c>
       <c r="V15" t="n">
-        <v>3.186606999807075</v>
+        <v>3970.449896659852</v>
       </c>
     </row>
     <row r="16">
@@ -1553,16 +1553,16 @@
         <v>1.604853355322979</v>
       </c>
       <c r="S16" t="n">
-        <v>4.821933507193725</v>
+        <v>5304.925843063171</v>
       </c>
       <c r="T16" t="n">
-        <v>4.129764422075871</v>
+        <v>6779.255046853928</v>
       </c>
       <c r="U16" t="n">
-        <v>2.723633803437014</v>
+        <v>5247.629750628627</v>
       </c>
       <c r="V16" t="n">
-        <v>3.476408086046509</v>
+        <v>4227.475035569903</v>
       </c>
     </row>
     <row r="17">
@@ -1621,16 +1621,16 @@
         <v>1.586636906909336</v>
       </c>
       <c r="S17" t="n">
-        <v>4.980322774857339</v>
+        <v>5647.731690244158</v>
       </c>
       <c r="T17" t="n">
-        <v>3.312213237265293</v>
+        <v>7201.182994653277</v>
       </c>
       <c r="U17" t="n">
-        <v>2.934210938712328</v>
+        <v>5494.330482021296</v>
       </c>
       <c r="V17" t="n">
-        <v>3.14037465964878</v>
+        <v>4513.448997284635</v>
       </c>
     </row>
     <row r="18">
@@ -1689,16 +1689,16 @@
         <v>1.569831030796486</v>
       </c>
       <c r="S18" t="n">
-        <v>4.466836088385272</v>
+        <v>5993.09241772809</v>
       </c>
       <c r="T18" t="n">
-        <v>3.991085381357152</v>
+        <v>7628.75303007921</v>
       </c>
       <c r="U18" t="n">
-        <v>2.547596002276887</v>
+        <v>5794.585975172212</v>
       </c>
       <c r="V18" t="n">
-        <v>3.323534831901247</v>
+        <v>4738.29730073988</v>
       </c>
     </row>
     <row r="19">
@@ -1757,16 +1757,16 @@
         <v>1.4964505526131</v>
       </c>
       <c r="S19" t="n">
-        <v>4.588254766938406</v>
+        <v>6316.426486166287</v>
       </c>
       <c r="T19" t="n">
-        <v>3.486287280951255</v>
+        <v>8029.71824499485</v>
       </c>
       <c r="U19" t="n">
-        <v>2.452537219168251</v>
+        <v>6062.723855424922</v>
       </c>
       <c r="V19" t="n">
-        <v>2.904774910203083</v>
+        <v>4956.547044878683</v>
       </c>
     </row>
     <row r="20">
@@ -1825,16 +1825,16 @@
         <v>1.422808644030554</v>
       </c>
       <c r="S20" t="n">
-        <v>3.855213433246306</v>
+        <v>6607.726052292868</v>
       </c>
       <c r="T20" t="n">
-        <v>3.806892834347927</v>
+        <v>8379.163350231258</v>
       </c>
       <c r="U20" t="n">
-        <v>2.880122082307087</v>
+        <v>6359.324077715492</v>
       </c>
       <c r="V20" t="n">
-        <v>2.934394388833608</v>
+        <v>5221.643106814106</v>
       </c>
     </row>
     <row r="21">
@@ -1893,16 +1893,16 @@
         <v>1.508301970672788</v>
       </c>
       <c r="S21" t="n">
-        <v>4.78215265869377</v>
+        <v>6938.672330772705</v>
       </c>
       <c r="T21" t="n">
-        <v>3.566258381383124</v>
+        <v>8797.784586424037</v>
       </c>
       <c r="U21" t="n">
-        <v>2.876152207246438</v>
+        <v>6638.994429536372</v>
       </c>
       <c r="V21" t="n">
-        <v>3.037885416536764</v>
+        <v>5462.471273432215</v>
       </c>
     </row>
     <row r="22">
@@ -1961,16 +1961,16 @@
         <v>1.463302998036619</v>
       </c>
       <c r="S22" t="n">
-        <v>4.599021565313109</v>
+        <v>7199.264568387257</v>
       </c>
       <c r="T22" t="n">
-        <v>3.928107586419845</v>
+        <v>9243.87731050094</v>
       </c>
       <c r="U22" t="n">
-        <v>2.837290694167822</v>
+        <v>6946.046839415396</v>
       </c>
       <c r="V22" t="n">
-        <v>2.554809501436484</v>
+        <v>5705.720345370884</v>
       </c>
     </row>
     <row r="23">
@@ -2029,16 +2029,16 @@
         <v>1.502004398345467</v>
       </c>
       <c r="S23" t="n">
-        <v>4.799641033577113</v>
+        <v>7494.929928005125</v>
       </c>
       <c r="T23" t="n">
-        <v>3.661168468421681</v>
+        <v>9670.932556849391</v>
       </c>
       <c r="U23" t="n">
-        <v>2.649903725719099</v>
+        <v>7222.926086792038</v>
       </c>
       <c r="V23" t="n">
-        <v>2.671596716145285</v>
+        <v>5944.731135598689</v>
       </c>
     </row>
     <row r="24">
@@ -2097,16 +2097,16 @@
         <v>1.577661155431596</v>
       </c>
       <c r="S24" t="n">
-        <v>4.65035655484294</v>
+        <v>7810.812431942738</v>
       </c>
       <c r="T24" t="n">
-        <v>3.812654833422334</v>
+        <v>10107.66294952077</v>
       </c>
       <c r="U24" t="n">
-        <v>2.823349789980342</v>
+        <v>7537.90122963245</v>
       </c>
       <c r="V24" t="n">
-        <v>3.320229767182416</v>
+        <v>6190.07803419361</v>
       </c>
     </row>
     <row r="25">
@@ -2165,16 +2165,16 @@
         <v>1.521320510071143</v>
       </c>
       <c r="S25" t="n">
-        <v>4.536327058640248</v>
+        <v>8120.828660402092</v>
       </c>
       <c r="T25" t="n">
-        <v>3.349163642083925</v>
+        <v>10487.17034066699</v>
       </c>
       <c r="U25" t="n">
-        <v>2.623825411845626</v>
+        <v>7792.463294980388</v>
       </c>
       <c r="V25" t="n">
-        <v>2.821002240321249</v>
+        <v>6419.433080304853</v>
       </c>
     </row>
     <row r="26">
@@ -2233,16 +2233,16 @@
         <v>1.556313918914007</v>
       </c>
       <c r="S26" t="n">
-        <v>4.450644039787766</v>
+        <v>8440.716470970168</v>
       </c>
       <c r="T26" t="n">
-        <v>3.830762839365772</v>
+        <v>10890.66154596722</v>
       </c>
       <c r="U26" t="n">
-        <v>2.937786143444237</v>
+        <v>8097.61464414683</v>
       </c>
       <c r="V26" t="n">
-        <v>3.118872719393184</v>
+        <v>6683.668150758789</v>
       </c>
     </row>
     <row r="27">
@@ -2301,16 +2301,16 @@
         <v>1.536298080678517</v>
       </c>
       <c r="S27" t="n">
-        <v>4.580359422029469</v>
+        <v>8720.430366626108</v>
       </c>
       <c r="T27" t="n">
-        <v>3.851866517262962</v>
+        <v>11319.14854235929</v>
       </c>
       <c r="U27" t="n">
-        <v>2.9889770324239</v>
+        <v>8389.350796836346</v>
       </c>
       <c r="V27" t="n">
-        <v>2.698528515527257</v>
+        <v>6948.066394912501</v>
       </c>
     </row>
     <row r="28">
@@ -2369,16 +2369,16 @@
         <v>1.540633678352911</v>
       </c>
       <c r="S28" t="n">
-        <v>4.389431649040003</v>
+        <v>9036.145372533587</v>
       </c>
       <c r="T28" t="n">
-        <v>3.356935691709179</v>
+        <v>11721.81962693027</v>
       </c>
       <c r="U28" t="n">
-        <v>2.882568448915348</v>
+        <v>8665.149018354623</v>
       </c>
       <c r="V28" t="n">
-        <v>2.999502288103869</v>
+        <v>7172.575506680448</v>
       </c>
     </row>
     <row r="29">
@@ -2437,16 +2437,16 @@
         <v>1.611401930576055</v>
       </c>
       <c r="S29" t="n">
-        <v>4.571432484831016</v>
+        <v>9394.990536429226</v>
       </c>
       <c r="T29" t="n">
-        <v>3.661723480281895</v>
+        <v>12110.7312864397</v>
       </c>
       <c r="U29" t="n">
-        <v>2.776553339307074</v>
+        <v>8955.542484065416</v>
       </c>
       <c r="V29" t="n">
-        <v>3.124946879025482</v>
+        <v>7394.923637067533</v>
       </c>
     </row>
     <row r="30">
@@ -2505,16 +2505,16 @@
         <v>1.478955103950217</v>
       </c>
       <c r="S30" t="n">
-        <v>3.800511603611903</v>
+        <v>9688.765296636004</v>
       </c>
       <c r="T30" t="n">
-        <v>3.532255102645402</v>
+        <v>12460.71997431522</v>
       </c>
       <c r="U30" t="n">
-        <v>2.847586913677213</v>
+        <v>9255.702829751937</v>
       </c>
       <c r="V30" t="n">
-        <v>2.944535360567465</v>
+        <v>7635.618315686651</v>
       </c>
     </row>
     <row r="31">
@@ -2573,16 +2573,16 @@
         <v>1.504963539526599</v>
       </c>
       <c r="S31" t="n">
-        <v>4.343348406443845</v>
+        <v>10002.88677277222</v>
       </c>
       <c r="T31" t="n">
-        <v>3.745976231976976</v>
+        <v>12847.13424974988</v>
       </c>
       <c r="U31" t="n">
-        <v>2.517632288284889</v>
+        <v>9550.442909631693</v>
       </c>
       <c r="V31" t="n">
-        <v>3.030782134549138</v>
+        <v>7865.221067695151</v>
       </c>
     </row>
     <row r="32">
@@ -2641,16 +2641,16 @@
         <v>1.526631454006042</v>
       </c>
       <c r="S32" t="n">
-        <v>4.426954476531525</v>
+        <v>10315.62897900094</v>
       </c>
       <c r="T32" t="n">
-        <v>3.75164350452693</v>
+        <v>13256.34425251722</v>
       </c>
       <c r="U32" t="n">
-        <v>2.900334670271065</v>
+        <v>9832.891955010105</v>
       </c>
       <c r="V32" t="n">
-        <v>2.999741389173631</v>
+        <v>8120.868807583954</v>
       </c>
     </row>
     <row r="33">
@@ -2709,16 +2709,16 @@
         <v>1.585381145913498</v>
       </c>
       <c r="S33" t="n">
-        <v>4.665452750551872</v>
+        <v>10629.84130695653</v>
       </c>
       <c r="T33" t="n">
-        <v>3.623957540513419</v>
+        <v>13662.40651689339</v>
       </c>
       <c r="U33" t="n">
-        <v>2.981072849801551</v>
+        <v>10138.84081814203</v>
       </c>
       <c r="V33" t="n">
-        <v>2.922687762446778</v>
+        <v>8377.511952809935</v>
       </c>
     </row>
     <row r="34">
@@ -2777,16 +2777,16 @@
         <v>1.520750414861104</v>
       </c>
       <c r="S34" t="n">
-        <v>4.490710566494311</v>
+        <v>10963.0761159953</v>
       </c>
       <c r="T34" t="n">
-        <v>3.310669249672964</v>
+        <v>14025.97280626472</v>
       </c>
       <c r="U34" t="n">
-        <v>2.664085815445361</v>
+        <v>10411.52859071715</v>
       </c>
       <c r="V34" t="n">
-        <v>2.939733248738282</v>
+        <v>8618.564655600769</v>
       </c>
     </row>
     <row r="35">
@@ -2845,16 +2845,16 @@
         <v>1.638820531638875</v>
       </c>
       <c r="S35" t="n">
-        <v>4.787136138481907</v>
+        <v>11246.6512733105</v>
       </c>
       <c r="T35" t="n">
-        <v>3.827654272301422</v>
+        <v>14497.39674622379</v>
       </c>
       <c r="U35" t="n">
-        <v>2.922008451808196</v>
+        <v>10722.91498836273</v>
       </c>
       <c r="V35" t="n">
-        <v>2.979061875550327</v>
+        <v>8865.353017506701</v>
       </c>
     </row>
     <row r="36">
@@ -2913,16 +2913,16 @@
         <v>1.70725856466746</v>
       </c>
       <c r="S36" t="n">
-        <v>4.799127766098485</v>
+        <v>11594.87054514657</v>
       </c>
       <c r="T36" t="n">
-        <v>4.166982672139252</v>
+        <v>14921.23091724275</v>
       </c>
       <c r="U36" t="n">
-        <v>2.965033532812286</v>
+        <v>11053.00528912712</v>
       </c>
       <c r="V36" t="n">
-        <v>3.029215391755164</v>
+        <v>9110.092943145288</v>
       </c>
     </row>
     <row r="37">
@@ -2981,16 +2981,16 @@
         <v>1.547020122009925</v>
       </c>
       <c r="S37" t="n">
-        <v>4.56144486192151</v>
+        <v>11926.11916235196</v>
       </c>
       <c r="T37" t="n">
-        <v>3.840063474913125</v>
+        <v>15311.84408904642</v>
       </c>
       <c r="U37" t="n">
-        <v>2.449200122420371</v>
+        <v>11345.89971072235</v>
       </c>
       <c r="V37" t="n">
-        <v>2.87456638923097</v>
+        <v>9334.903326337986</v>
       </c>
     </row>
     <row r="38">
@@ -3049,16 +3049,16 @@
         <v>1.535648004639304</v>
       </c>
       <c r="S38" t="n">
-        <v>4.278799261562152</v>
+        <v>12225.40742765435</v>
       </c>
       <c r="T38" t="n">
-        <v>3.478212981089021</v>
+        <v>15706.28485435586</v>
       </c>
       <c r="U38" t="n">
-        <v>2.79020731448433</v>
+        <v>11630.66819389804</v>
       </c>
       <c r="V38" t="n">
-        <v>2.808988379465664</v>
+        <v>9565.852472175358</v>
       </c>
     </row>
     <row r="39">
@@ -3117,16 +3117,16 @@
         <v>1.695060160207389</v>
       </c>
       <c r="S39" t="n">
-        <v>4.842598223254808</v>
+        <v>12557.48228175012</v>
       </c>
       <c r="T39" t="n">
-        <v>3.641051150808841</v>
+        <v>16125.35676241348</v>
       </c>
       <c r="U39" t="n">
-        <v>3.404160926880514</v>
+        <v>11952.94471445729</v>
       </c>
       <c r="V39" t="n">
-        <v>3.231033332742089</v>
+        <v>9860.140368232878</v>
       </c>
     </row>
     <row r="40">
@@ -3185,16 +3185,16 @@
         <v>1.639296348060197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.598176738850113</v>
+        <v>12914.76788476825</v>
       </c>
       <c r="T40" t="n">
-        <v>3.461056107694529</v>
+        <v>16529.42592988455</v>
       </c>
       <c r="U40" t="n">
-        <v>2.33776494570609</v>
+        <v>12232.14751991201</v>
       </c>
       <c r="V40" t="n">
-        <v>3.409364322361494</v>
+        <v>10065.49276960918</v>
       </c>
     </row>
     <row r="41">
@@ -3253,16 +3253,16 @@
         <v>1.593926471600021</v>
       </c>
       <c r="S41" t="n">
-        <v>4.263535657808692</v>
+        <v>13220.6968969868</v>
       </c>
       <c r="T41" t="n">
-        <v>3.805824368664636</v>
+        <v>16936.35960277305</v>
       </c>
       <c r="U41" t="n">
-        <v>2.684297833303649</v>
+        <v>12539.82310930645</v>
       </c>
       <c r="V41" t="n">
-        <v>3.137488169377132</v>
+        <v>10297.03680533382</v>
       </c>
     </row>
     <row r="42">
@@ -3321,16 +3321,16 @@
         <v>1.705049901328558</v>
       </c>
       <c r="S42" t="n">
-        <v>4.871080923451098</v>
+        <v>13563.90642569865</v>
       </c>
       <c r="T42" t="n">
-        <v>3.586817391539042</v>
+        <v>17363.24535484118</v>
       </c>
       <c r="U42" t="n">
-        <v>3.180381488975063</v>
+        <v>12832.75664668587</v>
       </c>
       <c r="V42" t="n">
-        <v>3.303457221407715</v>
+        <v>10588.2728087692</v>
       </c>
     </row>
     <row r="43">
@@ -3389,16 +3389,16 @@
         <v>1.68997065663751</v>
       </c>
       <c r="S43" t="n">
-        <v>4.716446527623888</v>
+        <v>13929.97055162128</v>
       </c>
       <c r="T43" t="n">
-        <v>3.863163953326755</v>
+        <v>17784.39578769385</v>
       </c>
       <c r="U43" t="n">
-        <v>2.776731429564026</v>
+        <v>13127.36196762497</v>
       </c>
       <c r="V43" t="n">
-        <v>3.272129913805793</v>
+        <v>10828.00960860974</v>
       </c>
     </row>
     <row r="44">
@@ -3457,16 +3457,16 @@
         <v>1.753107460314717</v>
       </c>
       <c r="S44" t="n">
-        <v>5.528056016330671</v>
+        <v>14282.74605239472</v>
       </c>
       <c r="T44" t="n">
-        <v>3.584093613491341</v>
+        <v>18270.21539318894</v>
       </c>
       <c r="U44" t="n">
-        <v>3.201329076714861</v>
+        <v>13420.60369689312</v>
       </c>
       <c r="V44" t="n">
-        <v>3.250946814317886</v>
+        <v>11103.76822646205</v>
       </c>
     </row>
     <row r="45">
@@ -3525,16 +3525,16 @@
         <v>1.749292701572939</v>
       </c>
       <c r="S45" t="n">
-        <v>5.254948590373673</v>
+        <v>14647.53440724554</v>
       </c>
       <c r="T45" t="n">
-        <v>3.993730093785699</v>
+        <v>18739.4870187329</v>
       </c>
       <c r="U45" t="n">
-        <v>3.044296732435145</v>
+        <v>13724.17657167649</v>
       </c>
       <c r="V45" t="n">
-        <v>3.102210205016658</v>
+        <v>11354.57709560376</v>
       </c>
     </row>
     <row r="46">
@@ -3593,16 +3593,16 @@
         <v>1.561858242132389</v>
       </c>
       <c r="S46" t="n">
-        <v>4.475169988491862</v>
+        <v>14951.63604576559</v>
       </c>
       <c r="T46" t="n">
-        <v>3.647795949462184</v>
+        <v>19125.56218116658</v>
       </c>
       <c r="U46" t="n">
-        <v>2.870502921896187</v>
+        <v>14026.1757343531</v>
       </c>
       <c r="V46" t="n">
-        <v>2.725009550488815</v>
+        <v>11603.51044763061</v>
       </c>
     </row>
   </sheetData>
